--- a/Shablon/TDS2014B.xlsx
+++ b/Shablon/TDS2014B.xlsx
@@ -1479,7 +1479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1568,9 +1568,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1598,89 +1595,89 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1991,8 +1988,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2048,32 +2045,32 @@
       <c r="J3" s="59"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -2087,15 +2084,15 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="36" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="20" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="35"/>
@@ -2115,17 +2112,17 @@
       <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="27" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="31"/>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="28"/>
@@ -2133,12 +2130,12 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="38" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="37" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="28"/>
@@ -2149,11 +2146,11 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -2163,11 +2160,11 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="26"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -2177,12 +2174,12 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="38" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="37" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="28"/>
@@ -2193,11 +2190,11 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="26" t="s">
         <v>94</v>
       </c>
@@ -2209,11 +2206,11 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="27" t="s">
         <v>96</v>
       </c>
@@ -2251,113 +2248,113 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48" t="s">
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="60" t="s">
+      <c r="F18" s="51"/>
+      <c r="G18" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="60"/>
+      <c r="H18" s="52"/>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72" t="s">
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73" t="s">
+      <c r="F20" s="47"/>
+      <c r="G20" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="73"/>
+      <c r="H20" s="48"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="73" t="s">
+      <c r="F21" s="47"/>
+      <c r="G21" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="73"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="73" t="s">
+      <c r="F22" s="47"/>
+      <c r="G22" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="73"/>
+      <c r="H22" s="48"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="73" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="73"/>
+      <c r="H23" s="48"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="73" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="73"/>
+      <c r="H24" s="48"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2484,94 +2481,94 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48" t="s">
+      <c r="D35" s="51"/>
+      <c r="E35" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48" t="s">
+      <c r="F35" s="51"/>
+      <c r="G35" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48" t="s">
+      <c r="H35" s="51"/>
+      <c r="I35" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="J35" s="48"/>
+      <c r="J35" s="51"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="60"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="60"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="60"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="60"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
       <c r="G39" s="16" t="s">
         <v>2</v>
       </c>
       <c r="H39" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
     </row>
     <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
@@ -2580,24 +2577,24 @@
       <c r="B41" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58" t="s">
+      <c r="D41" s="53"/>
+      <c r="E41" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F41" s="58"/>
+      <c r="F41" s="53"/>
       <c r="G41" s="11" t="s">
         <v>104</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="I41" s="55">
+      <c r="I41" s="50">
         <v>4</v>
       </c>
-      <c r="J41" s="55"/>
+      <c r="J41" s="50"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
@@ -2606,22 +2603,22 @@
       <c r="B42" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58" t="s">
+      <c r="D42" s="53"/>
+      <c r="E42" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="F42" s="58"/>
+      <c r="F42" s="53"/>
       <c r="G42" s="11" t="s">
         <v>108</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
@@ -2630,24 +2627,24 @@
       <c r="B43" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58" t="s">
+      <c r="D43" s="53"/>
+      <c r="E43" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="F43" s="58"/>
+      <c r="F43" s="53"/>
       <c r="G43" s="11" t="s">
         <v>112</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I43" s="68" t="s">
+      <c r="I43" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="J43" s="68"/>
+      <c r="J43" s="54"/>
     </row>
     <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
@@ -2656,22 +2653,22 @@
       <c r="B44" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58" t="s">
+      <c r="D44" s="53"/>
+      <c r="E44" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="F44" s="58"/>
+      <c r="F44" s="53"/>
       <c r="G44" s="11" t="s">
         <v>116</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
@@ -2680,22 +2677,22 @@
       <c r="B45" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58" t="s">
+      <c r="D45" s="53"/>
+      <c r="E45" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="F45" s="58"/>
+      <c r="F45" s="53"/>
       <c r="G45" s="11" t="s">
         <v>120</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
@@ -2704,22 +2701,22 @@
       <c r="B46" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58" t="s">
+      <c r="D46" s="53"/>
+      <c r="E46" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="F46" s="58"/>
+      <c r="F46" s="53"/>
       <c r="G46" s="11" t="s">
         <v>124</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
@@ -2728,22 +2725,22 @@
       <c r="B47" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58" t="s">
+      <c r="D47" s="53"/>
+      <c r="E47" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="58"/>
+      <c r="F47" s="53"/>
       <c r="G47" s="11" t="s">
         <v>128</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
     </row>
     <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
@@ -2752,22 +2749,22 @@
       <c r="B48" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58" t="s">
+      <c r="D48" s="53"/>
+      <c r="E48" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="58"/>
+      <c r="F48" s="53"/>
       <c r="G48" s="11" t="s">
         <v>132</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
@@ -2776,22 +2773,22 @@
       <c r="B49" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58" t="s">
+      <c r="D49" s="53"/>
+      <c r="E49" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="F49" s="58"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="11" t="s">
         <v>136</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
     </row>
     <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
@@ -2800,22 +2797,22 @@
       <c r="B50" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58" t="s">
+      <c r="D50" s="53"/>
+      <c r="E50" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="F50" s="58"/>
+      <c r="F50" s="53"/>
       <c r="G50" s="11" t="s">
         <v>140</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
@@ -2824,22 +2821,22 @@
       <c r="B51" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58" t="s">
+      <c r="D51" s="53"/>
+      <c r="E51" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="F51" s="58"/>
+      <c r="F51" s="53"/>
       <c r="G51" s="11" t="s">
         <v>144</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
@@ -2866,94 +2863,94 @@
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="C54" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48" t="s">
+      <c r="D54" s="51"/>
+      <c r="E54" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48" t="s">
+      <c r="F54" s="51"/>
+      <c r="G54" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48" t="s">
+      <c r="H54" s="51"/>
+      <c r="I54" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="J54" s="48"/>
+      <c r="J54" s="51"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="60"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="60"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="60"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="60"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
       <c r="G58" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H58" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="66" t="s">
+      <c r="A59" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
     </row>
     <row r="60" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
@@ -2962,24 +2959,24 @@
       <c r="B60" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="58" t="s">
+      <c r="C60" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58" t="s">
+      <c r="D60" s="53"/>
+      <c r="E60" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="58"/>
+      <c r="F60" s="53"/>
       <c r="G60" s="11" t="s">
         <v>148</v>
       </c>
       <c r="H60" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="I60" s="55">
+      <c r="I60" s="50">
         <v>4</v>
       </c>
-      <c r="J60" s="55"/>
+      <c r="J60" s="50"/>
     </row>
     <row r="61" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
@@ -2988,22 +2985,22 @@
       <c r="B61" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="58" t="s">
+      <c r="C61" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58" t="s">
+      <c r="D61" s="53"/>
+      <c r="E61" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="F61" s="58"/>
+      <c r="F61" s="53"/>
       <c r="G61" s="11" t="s">
         <v>152</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
     </row>
     <row r="62" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
@@ -3012,24 +3009,24 @@
       <c r="B62" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="58" t="s">
+      <c r="C62" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58" t="s">
+      <c r="D62" s="53"/>
+      <c r="E62" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="F62" s="58"/>
+      <c r="F62" s="53"/>
       <c r="G62" s="11" t="s">
         <v>156</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="I62" s="68" t="s">
+      <c r="I62" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="J62" s="68"/>
+      <c r="J62" s="54"/>
     </row>
     <row r="63" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
@@ -3038,22 +3035,22 @@
       <c r="B63" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58" t="s">
+      <c r="D63" s="53"/>
+      <c r="E63" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="F63" s="58"/>
+      <c r="F63" s="53"/>
       <c r="G63" s="11" t="s">
         <v>160</v>
       </c>
       <c r="H63" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
     </row>
     <row r="64" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
@@ -3062,22 +3059,22 @@
       <c r="B64" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="C64" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58" t="s">
+      <c r="D64" s="53"/>
+      <c r="E64" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="F64" s="58"/>
+      <c r="F64" s="53"/>
       <c r="G64" s="11" t="s">
         <v>164</v>
       </c>
       <c r="H64" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="I64" s="68"/>
-      <c r="J64" s="68"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
     </row>
     <row r="65" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
@@ -3086,22 +3083,22 @@
       <c r="B65" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58" t="s">
+      <c r="D65" s="53"/>
+      <c r="E65" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="F65" s="58"/>
+      <c r="F65" s="53"/>
       <c r="G65" s="11" t="s">
         <v>168</v>
       </c>
       <c r="H65" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="I65" s="68"/>
-      <c r="J65" s="68"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
     </row>
     <row r="66" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
@@ -3110,22 +3107,22 @@
       <c r="B66" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="58" t="s">
+      <c r="C66" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58" t="s">
+      <c r="D66" s="53"/>
+      <c r="E66" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="F66" s="58"/>
+      <c r="F66" s="53"/>
       <c r="G66" s="11" t="s">
         <v>172</v>
       </c>
       <c r="H66" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
     </row>
     <row r="67" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
@@ -3134,22 +3131,22 @@
       <c r="B67" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="C67" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58" t="s">
+      <c r="D67" s="53"/>
+      <c r="E67" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="F67" s="58"/>
+      <c r="F67" s="53"/>
       <c r="G67" s="11" t="s">
         <v>176</v>
       </c>
       <c r="H67" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="I67" s="68"/>
-      <c r="J67" s="68"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
     </row>
     <row r="68" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
@@ -3158,22 +3155,22 @@
       <c r="B68" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="58" t="s">
+      <c r="C68" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="D68" s="58"/>
-      <c r="E68" s="58" t="s">
+      <c r="D68" s="53"/>
+      <c r="E68" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="F68" s="58"/>
+      <c r="F68" s="53"/>
       <c r="G68" s="11" t="s">
         <v>180</v>
       </c>
       <c r="H68" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="I68" s="68"/>
-      <c r="J68" s="68"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
     </row>
     <row r="69" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
@@ -3182,22 +3179,22 @@
       <c r="B69" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="58" t="s">
+      <c r="C69" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58" t="s">
+      <c r="D69" s="53"/>
+      <c r="E69" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="F69" s="58"/>
+      <c r="F69" s="53"/>
       <c r="G69" s="11" t="s">
         <v>184</v>
       </c>
       <c r="H69" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="I69" s="68"/>
-      <c r="J69" s="68"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
     </row>
     <row r="70" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
@@ -3206,36 +3203,36 @@
       <c r="B70" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="58" t="s">
+      <c r="C70" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58" t="s">
+      <c r="D70" s="53"/>
+      <c r="E70" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="F70" s="58"/>
+      <c r="F70" s="53"/>
       <c r="G70" s="11" t="s">
         <v>188</v>
       </c>
       <c r="H70" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="I70" s="68"/>
-      <c r="J70" s="68"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="64" t="s">
+      <c r="A71" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="65"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
     </row>
     <row r="72" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
@@ -3244,24 +3241,24 @@
       <c r="B72" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="58" t="s">
+      <c r="C72" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58" t="s">
+      <c r="D72" s="53"/>
+      <c r="E72" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="58"/>
+      <c r="F72" s="53"/>
       <c r="G72" s="11" t="s">
         <v>192</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="I72" s="55">
+      <c r="I72" s="50">
         <v>4</v>
       </c>
-      <c r="J72" s="55"/>
+      <c r="J72" s="50"/>
     </row>
     <row r="73" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
@@ -3270,22 +3267,22 @@
       <c r="B73" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="58" t="s">
+      <c r="C73" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58" t="s">
+      <c r="D73" s="53"/>
+      <c r="E73" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="F73" s="58"/>
+      <c r="F73" s="53"/>
       <c r="G73" s="11" t="s">
         <v>196</v>
       </c>
       <c r="H73" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="I73" s="55"/>
-      <c r="J73" s="55"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
     </row>
     <row r="74" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
@@ -3294,24 +3291,24 @@
       <c r="B74" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="58" t="s">
+      <c r="C74" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58" t="s">
+      <c r="D74" s="53"/>
+      <c r="E74" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="F74" s="58"/>
+      <c r="F74" s="53"/>
       <c r="G74" s="11" t="s">
         <v>200</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="I74" s="68" t="s">
+      <c r="I74" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="J74" s="68"/>
+      <c r="J74" s="54"/>
     </row>
     <row r="75" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
@@ -3320,22 +3317,22 @@
       <c r="B75" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="58" t="s">
+      <c r="C75" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58" t="s">
+      <c r="D75" s="53"/>
+      <c r="E75" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="F75" s="58"/>
+      <c r="F75" s="53"/>
       <c r="G75" s="11" t="s">
         <v>204</v>
       </c>
       <c r="H75" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="I75" s="68"/>
-      <c r="J75" s="68"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
     </row>
     <row r="76" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
@@ -3344,22 +3341,22 @@
       <c r="B76" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="58" t="s">
+      <c r="C76" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="D76" s="58"/>
-      <c r="E76" s="58" t="s">
+      <c r="D76" s="53"/>
+      <c r="E76" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="F76" s="58"/>
+      <c r="F76" s="53"/>
       <c r="G76" s="11" t="s">
         <v>208</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="I76" s="68"/>
-      <c r="J76" s="68"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
     </row>
     <row r="77" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
@@ -3368,22 +3365,22 @@
       <c r="B77" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="58" t="s">
+      <c r="C77" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="D77" s="58"/>
-      <c r="E77" s="58" t="s">
+      <c r="D77" s="53"/>
+      <c r="E77" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="F77" s="58"/>
+      <c r="F77" s="53"/>
       <c r="G77" s="11" t="s">
         <v>212</v>
       </c>
       <c r="H77" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="I77" s="68"/>
-      <c r="J77" s="68"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
     </row>
     <row r="78" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
@@ -3392,22 +3389,22 @@
       <c r="B78" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C78" s="58" t="s">
+      <c r="C78" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="D78" s="58"/>
-      <c r="E78" s="58" t="s">
+      <c r="D78" s="53"/>
+      <c r="E78" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="F78" s="58"/>
+      <c r="F78" s="53"/>
       <c r="G78" s="11" t="s">
         <v>216</v>
       </c>
       <c r="H78" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="I78" s="68"/>
-      <c r="J78" s="68"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
     </row>
     <row r="79" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
@@ -3416,22 +3413,22 @@
       <c r="B79" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C79" s="58" t="s">
+      <c r="C79" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58" t="s">
+      <c r="D79" s="53"/>
+      <c r="E79" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="F79" s="58"/>
+      <c r="F79" s="53"/>
       <c r="G79" s="11" t="s">
         <v>220</v>
       </c>
       <c r="H79" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="I79" s="68"/>
-      <c r="J79" s="68"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
     </row>
     <row r="80" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
@@ -3440,22 +3437,22 @@
       <c r="B80" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="58" t="s">
+      <c r="C80" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58" t="s">
+      <c r="D80" s="53"/>
+      <c r="E80" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="F80" s="58"/>
+      <c r="F80" s="53"/>
       <c r="G80" s="11" t="s">
         <v>224</v>
       </c>
       <c r="H80" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="I80" s="68"/>
-      <c r="J80" s="68"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
     </row>
     <row r="81" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
@@ -3464,22 +3461,22 @@
       <c r="B81" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58" t="s">
+      <c r="D81" s="53"/>
+      <c r="E81" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="F81" s="58"/>
+      <c r="F81" s="53"/>
       <c r="G81" s="11" t="s">
         <v>228</v>
       </c>
       <c r="H81" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="I81" s="68"/>
-      <c r="J81" s="68"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="54"/>
     </row>
     <row r="82" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
@@ -3488,36 +3485,36 @@
       <c r="B82" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C82" s="58" t="s">
+      <c r="C82" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58" t="s">
+      <c r="D82" s="53"/>
+      <c r="E82" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="F82" s="58"/>
+      <c r="F82" s="53"/>
       <c r="G82" s="11" t="s">
         <v>232</v>
       </c>
       <c r="H82" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="I82" s="68"/>
-      <c r="J82" s="68"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="54"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="64" t="s">
+      <c r="A83" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="65"/>
-      <c r="I83" s="65"/>
-      <c r="J83" s="65"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="56"/>
     </row>
     <row r="84" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
@@ -3526,24 +3523,24 @@
       <c r="B84" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C84" s="58" t="s">
+      <c r="C84" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58" t="s">
+      <c r="D84" s="53"/>
+      <c r="E84" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="F84" s="58"/>
+      <c r="F84" s="53"/>
       <c r="G84" s="11" t="s">
         <v>236</v>
       </c>
       <c r="H84" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="I84" s="55">
+      <c r="I84" s="50">
         <v>4</v>
       </c>
-      <c r="J84" s="55"/>
+      <c r="J84" s="50"/>
     </row>
     <row r="85" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
@@ -3552,22 +3549,22 @@
       <c r="B85" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="58" t="s">
+      <c r="C85" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58" t="s">
+      <c r="D85" s="53"/>
+      <c r="E85" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="F85" s="58"/>
+      <c r="F85" s="53"/>
       <c r="G85" s="11" t="s">
         <v>240</v>
       </c>
       <c r="H85" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="I85" s="55"/>
-      <c r="J85" s="55"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="50"/>
     </row>
     <row r="86" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
@@ -3576,24 +3573,24 @@
       <c r="B86" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C86" s="58" t="s">
+      <c r="C86" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58" t="s">
+      <c r="D86" s="53"/>
+      <c r="E86" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="F86" s="58"/>
+      <c r="F86" s="53"/>
       <c r="G86" s="11" t="s">
         <v>244</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="I86" s="68" t="s">
+      <c r="I86" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="J86" s="68"/>
+      <c r="J86" s="54"/>
     </row>
     <row r="87" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
@@ -3602,22 +3599,22 @@
       <c r="B87" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C87" s="58" t="s">
+      <c r="C87" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58" t="s">
+      <c r="D87" s="53"/>
+      <c r="E87" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="F87" s="58"/>
+      <c r="F87" s="53"/>
       <c r="G87" s="11" t="s">
         <v>248</v>
       </c>
       <c r="H87" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="I87" s="68"/>
-      <c r="J87" s="68"/>
+      <c r="I87" s="54"/>
+      <c r="J87" s="54"/>
     </row>
     <row r="88" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
@@ -3626,22 +3623,22 @@
       <c r="B88" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C88" s="58" t="s">
+      <c r="C88" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58" t="s">
+      <c r="D88" s="53"/>
+      <c r="E88" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="F88" s="58"/>
+      <c r="F88" s="53"/>
       <c r="G88" s="11" t="s">
         <v>252</v>
       </c>
       <c r="H88" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="I88" s="68"/>
-      <c r="J88" s="68"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="54"/>
     </row>
     <row r="89" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
@@ -3650,22 +3647,22 @@
       <c r="B89" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C89" s="58" t="s">
+      <c r="C89" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58" t="s">
+      <c r="D89" s="53"/>
+      <c r="E89" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="F89" s="58"/>
+      <c r="F89" s="53"/>
       <c r="G89" s="11" t="s">
         <v>256</v>
       </c>
       <c r="H89" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="I89" s="68"/>
-      <c r="J89" s="68"/>
+      <c r="I89" s="54"/>
+      <c r="J89" s="54"/>
     </row>
     <row r="90" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
@@ -3674,22 +3671,22 @@
       <c r="B90" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C90" s="58" t="s">
+      <c r="C90" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="D90" s="58"/>
-      <c r="E90" s="58" t="s">
+      <c r="D90" s="53"/>
+      <c r="E90" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="F90" s="58"/>
+      <c r="F90" s="53"/>
       <c r="G90" s="11" t="s">
         <v>260</v>
       </c>
       <c r="H90" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="I90" s="68"/>
-      <c r="J90" s="68"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="54"/>
     </row>
     <row r="91" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
@@ -3698,22 +3695,22 @@
       <c r="B91" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="58" t="s">
+      <c r="C91" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="D91" s="58"/>
-      <c r="E91" s="58" t="s">
+      <c r="D91" s="53"/>
+      <c r="E91" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="F91" s="58"/>
+      <c r="F91" s="53"/>
       <c r="G91" s="11" t="s">
         <v>264</v>
       </c>
       <c r="H91" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="I91" s="68"/>
-      <c r="J91" s="68"/>
+      <c r="I91" s="54"/>
+      <c r="J91" s="54"/>
     </row>
     <row r="92" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
@@ -3722,22 +3719,22 @@
       <c r="B92" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C92" s="58" t="s">
+      <c r="C92" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="D92" s="58"/>
-      <c r="E92" s="58" t="s">
+      <c r="D92" s="53"/>
+      <c r="E92" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="F92" s="58"/>
+      <c r="F92" s="53"/>
       <c r="G92" s="11" t="s">
         <v>268</v>
       </c>
       <c r="H92" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="I92" s="68"/>
-      <c r="J92" s="68"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="54"/>
     </row>
     <row r="93" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
@@ -3746,22 +3743,22 @@
       <c r="B93" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C93" s="58" t="s">
+      <c r="C93" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58" t="s">
+      <c r="D93" s="53"/>
+      <c r="E93" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="F93" s="58"/>
+      <c r="F93" s="53"/>
       <c r="G93" s="11" t="s">
         <v>272</v>
       </c>
       <c r="H93" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="I93" s="68"/>
-      <c r="J93" s="68"/>
+      <c r="I93" s="54"/>
+      <c r="J93" s="54"/>
     </row>
     <row r="94" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
@@ -3770,22 +3767,22 @@
       <c r="B94" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C94" s="58" t="s">
+      <c r="C94" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58" t="s">
+      <c r="D94" s="53"/>
+      <c r="E94" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="F94" s="58"/>
+      <c r="F94" s="53"/>
       <c r="G94" s="11" t="s">
         <v>276</v>
       </c>
       <c r="H94" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="I94" s="68"/>
-      <c r="J94" s="68"/>
+      <c r="I94" s="54"/>
+      <c r="J94" s="54"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
@@ -3793,137 +3790,137 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="60" t="s">
+      <c r="A111" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="60" t="s">
+      <c r="B111" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C111" s="60"/>
-      <c r="D111" s="48" t="s">
+      <c r="C111" s="52"/>
+      <c r="D111" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E111" s="48"/>
-      <c r="F111" s="48" t="s">
+      <c r="E111" s="51"/>
+      <c r="F111" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="G111" s="48"/>
-      <c r="H111" s="60" t="s">
+      <c r="G111" s="51"/>
+      <c r="H111" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="I111" s="60"/>
-      <c r="J111" s="60"/>
+      <c r="I111" s="52"/>
+      <c r="J111" s="52"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="60"/>
-      <c r="B112" s="60"/>
-      <c r="C112" s="60"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="48"/>
-      <c r="F112" s="48"/>
-      <c r="G112" s="48"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="60"/>
-      <c r="J112" s="60"/>
+      <c r="A112" s="52"/>
+      <c r="B112" s="52"/>
+      <c r="C112" s="52"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="52"/>
+      <c r="I112" s="52"/>
+      <c r="J112" s="52"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="60"/>
-      <c r="B113" s="60"/>
-      <c r="C113" s="60"/>
-      <c r="D113" s="48"/>
-      <c r="E113" s="48"/>
-      <c r="F113" s="48"/>
-      <c r="G113" s="48"/>
+      <c r="A113" s="52"/>
+      <c r="B113" s="52"/>
+      <c r="C113" s="52"/>
+      <c r="D113" s="51"/>
+      <c r="E113" s="51"/>
+      <c r="F113" s="51"/>
+      <c r="G113" s="51"/>
       <c r="H113" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I113" s="62" t="s">
+      <c r="I113" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="J113" s="63"/>
+      <c r="J113" s="62"/>
     </row>
     <row r="114" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="55">
+      <c r="A114" s="50">
         <v>1</v>
       </c>
       <c r="B114" s="14">
         <v>5</v>
       </c>
-      <c r="C114" s="55" t="s">
+      <c r="C114" s="50" t="s">
         <v>70</v>
       </c>
       <c r="D114" s="16">
         <v>2.5</v>
       </c>
-      <c r="E114" s="55" t="s">
+      <c r="E114" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="F114" s="43" t="s">
+      <c r="F114" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="G114" s="55" t="s">
+      <c r="G114" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="H114" s="43" t="s">
+      <c r="H114" s="42" t="s">
         <v>298</v>
       </c>
       <c r="I114" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J114" s="55" t="s">
+      <c r="J114" s="50" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="55"/>
+      <c r="A115" s="50"/>
       <c r="B115" s="14">
         <v>100</v>
       </c>
-      <c r="C115" s="55"/>
+      <c r="C115" s="50"/>
       <c r="D115" s="16">
         <v>50</v>
       </c>
-      <c r="E115" s="55"/>
-      <c r="F115" s="43" t="s">
+      <c r="E115" s="50"/>
+      <c r="F115" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="G115" s="55"/>
-      <c r="H115" s="43" t="s">
+      <c r="G115" s="50"/>
+      <c r="H115" s="42" t="s">
         <v>299</v>
       </c>
       <c r="I115" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J115" s="55"/>
+      <c r="J115" s="50"/>
     </row>
     <row r="116" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="55"/>
+      <c r="A116" s="50"/>
       <c r="B116" s="14">
         <v>500</v>
       </c>
-      <c r="C116" s="55"/>
+      <c r="C116" s="50"/>
       <c r="D116" s="16">
         <v>250</v>
       </c>
-      <c r="E116" s="55"/>
-      <c r="F116" s="43" t="s">
+      <c r="E116" s="50"/>
+      <c r="F116" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="G116" s="55"/>
-      <c r="H116" s="43" t="s">
+      <c r="G116" s="50"/>
+      <c r="H116" s="42" t="s">
         <v>300</v>
       </c>
       <c r="I116" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J116" s="55"/>
+      <c r="J116" s="50"/>
     </row>
     <row r="117" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="55"/>
+      <c r="A117" s="50"/>
       <c r="B117" s="14">
         <v>1</v>
       </c>
-      <c r="C117" s="55" t="s">
+      <c r="C117" s="50" t="s">
         <v>76</v>
       </c>
       <c r="D117" s="16">
@@ -3932,128 +3929,128 @@
       <c r="E117" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F117" s="43" t="s">
+      <c r="F117" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="G117" s="55" t="s">
+      <c r="G117" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="H117" s="43" t="s">
+      <c r="H117" s="42" t="s">
         <v>301</v>
       </c>
       <c r="I117" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="J117" s="55" t="s">
+      <c r="J117" s="50" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="55"/>
+      <c r="A118" s="50"/>
       <c r="B118" s="14">
         <v>5</v>
       </c>
-      <c r="C118" s="55"/>
+      <c r="C118" s="50"/>
       <c r="D118" s="16">
         <v>2.5</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F118" s="43" t="s">
+      <c r="F118" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="G118" s="55"/>
-      <c r="H118" s="43" t="s">
+      <c r="G118" s="50"/>
+      <c r="H118" s="42" t="s">
         <v>302</v>
       </c>
       <c r="I118" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J118" s="55"/>
+      <c r="J118" s="50"/>
     </row>
     <row r="119" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="55">
+      <c r="A119" s="50">
         <v>2</v>
       </c>
       <c r="B119" s="14">
         <v>5</v>
       </c>
-      <c r="C119" s="55" t="s">
+      <c r="C119" s="50" t="s">
         <v>70</v>
       </c>
       <c r="D119" s="16">
         <v>2.5</v>
       </c>
-      <c r="E119" s="55" t="s">
+      <c r="E119" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="F119" s="43" t="s">
+      <c r="F119" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="G119" s="55" t="s">
+      <c r="G119" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="H119" s="43" t="s">
+      <c r="H119" s="42" t="s">
         <v>303</v>
       </c>
       <c r="I119" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J119" s="55" t="s">
+      <c r="J119" s="50" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="55"/>
+      <c r="A120" s="50"/>
       <c r="B120" s="14">
         <v>100</v>
       </c>
-      <c r="C120" s="55"/>
+      <c r="C120" s="50"/>
       <c r="D120" s="16">
         <v>50</v>
       </c>
-      <c r="E120" s="55"/>
-      <c r="F120" s="43" t="s">
+      <c r="E120" s="50"/>
+      <c r="F120" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="G120" s="55"/>
-      <c r="H120" s="43" t="s">
+      <c r="G120" s="50"/>
+      <c r="H120" s="42" t="s">
         <v>304</v>
       </c>
       <c r="I120" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J120" s="55"/>
+      <c r="J120" s="50"/>
     </row>
     <row r="121" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="55"/>
+      <c r="A121" s="50"/>
       <c r="B121" s="14">
         <v>500</v>
       </c>
-      <c r="C121" s="55"/>
+      <c r="C121" s="50"/>
       <c r="D121" s="16">
         <v>250</v>
       </c>
-      <c r="E121" s="55"/>
-      <c r="F121" s="43" t="s">
+      <c r="E121" s="50"/>
+      <c r="F121" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="G121" s="55"/>
-      <c r="H121" s="43" t="s">
+      <c r="G121" s="50"/>
+      <c r="H121" s="42" t="s">
         <v>305</v>
       </c>
       <c r="I121" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J121" s="55"/>
+      <c r="J121" s="50"/>
     </row>
     <row r="122" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="55"/>
+      <c r="A122" s="50"/>
       <c r="B122" s="14">
         <v>1</v>
       </c>
-      <c r="C122" s="55" t="s">
+      <c r="C122" s="50" t="s">
         <v>76</v>
       </c>
       <c r="D122" s="16">
@@ -4062,128 +4059,128 @@
       <c r="E122" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F122" s="43" t="s">
+      <c r="F122" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="G122" s="55" t="s">
+      <c r="G122" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="H122" s="43" t="s">
+      <c r="H122" s="42" t="s">
         <v>306</v>
       </c>
       <c r="I122" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="J122" s="55" t="s">
+      <c r="J122" s="50" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="55"/>
+      <c r="A123" s="50"/>
       <c r="B123" s="14">
         <v>5</v>
       </c>
-      <c r="C123" s="55"/>
+      <c r="C123" s="50"/>
       <c r="D123" s="16">
         <v>2.5</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F123" s="43" t="s">
+      <c r="F123" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="G123" s="55"/>
-      <c r="H123" s="43" t="s">
+      <c r="G123" s="50"/>
+      <c r="H123" s="42" t="s">
         <v>307</v>
       </c>
       <c r="I123" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J123" s="55"/>
+      <c r="J123" s="50"/>
     </row>
     <row r="124" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="55">
+      <c r="A124" s="50">
         <v>3</v>
       </c>
       <c r="B124" s="14">
         <v>5</v>
       </c>
-      <c r="C124" s="55" t="s">
+      <c r="C124" s="50" t="s">
         <v>70</v>
       </c>
       <c r="D124" s="16">
         <v>2.5</v>
       </c>
-      <c r="E124" s="55" t="s">
+      <c r="E124" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="F124" s="43" t="s">
+      <c r="F124" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="G124" s="55" t="s">
+      <c r="G124" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="H124" s="43" t="s">
+      <c r="H124" s="42" t="s">
         <v>308</v>
       </c>
       <c r="I124" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J124" s="55" t="s">
+      <c r="J124" s="50" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="55"/>
+      <c r="A125" s="50"/>
       <c r="B125" s="14">
         <v>100</v>
       </c>
-      <c r="C125" s="55"/>
+      <c r="C125" s="50"/>
       <c r="D125" s="16">
         <v>50</v>
       </c>
-      <c r="E125" s="55"/>
-      <c r="F125" s="43" t="s">
+      <c r="E125" s="50"/>
+      <c r="F125" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="G125" s="55"/>
-      <c r="H125" s="43" t="s">
+      <c r="G125" s="50"/>
+      <c r="H125" s="42" t="s">
         <v>309</v>
       </c>
       <c r="I125" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J125" s="55"/>
+      <c r="J125" s="50"/>
     </row>
     <row r="126" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="55"/>
+      <c r="A126" s="50"/>
       <c r="B126" s="14">
         <v>500</v>
       </c>
-      <c r="C126" s="55"/>
+      <c r="C126" s="50"/>
       <c r="D126" s="16">
         <v>250</v>
       </c>
-      <c r="E126" s="55"/>
-      <c r="F126" s="43" t="s">
+      <c r="E126" s="50"/>
+      <c r="F126" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="G126" s="55"/>
-      <c r="H126" s="43" t="s">
+      <c r="G126" s="50"/>
+      <c r="H126" s="42" t="s">
         <v>310</v>
       </c>
       <c r="I126" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J126" s="55"/>
+      <c r="J126" s="50"/>
     </row>
     <row r="127" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="55"/>
+      <c r="A127" s="50"/>
       <c r="B127" s="14">
         <v>1</v>
       </c>
-      <c r="C127" s="55" t="s">
+      <c r="C127" s="50" t="s">
         <v>76</v>
       </c>
       <c r="D127" s="16">
@@ -4192,128 +4189,128 @@
       <c r="E127" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F127" s="43" t="s">
+      <c r="F127" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="G127" s="55" t="s">
+      <c r="G127" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="H127" s="43" t="s">
+      <c r="H127" s="42" t="s">
         <v>311</v>
       </c>
       <c r="I127" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="J127" s="55" t="s">
+      <c r="J127" s="50" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="55"/>
+      <c r="A128" s="50"/>
       <c r="B128" s="14">
         <v>5</v>
       </c>
-      <c r="C128" s="55"/>
+      <c r="C128" s="50"/>
       <c r="D128" s="16">
         <v>2.5</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F128" s="43" t="s">
+      <c r="F128" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="G128" s="55"/>
-      <c r="H128" s="43" t="s">
+      <c r="G128" s="50"/>
+      <c r="H128" s="42" t="s">
         <v>312</v>
       </c>
       <c r="I128" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J128" s="55"/>
+      <c r="J128" s="50"/>
     </row>
     <row r="129" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="55">
+      <c r="A129" s="50">
         <v>4</v>
       </c>
       <c r="B129" s="14">
         <v>5</v>
       </c>
-      <c r="C129" s="55" t="s">
+      <c r="C129" s="50" t="s">
         <v>70</v>
       </c>
       <c r="D129" s="16">
         <v>2.5</v>
       </c>
-      <c r="E129" s="55" t="s">
+      <c r="E129" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="F129" s="43" t="s">
+      <c r="F129" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="G129" s="55" t="s">
+      <c r="G129" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="H129" s="43" t="s">
+      <c r="H129" s="42" t="s">
         <v>313</v>
       </c>
       <c r="I129" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J129" s="55" t="s">
+      <c r="J129" s="50" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="55"/>
+      <c r="A130" s="50"/>
       <c r="B130" s="14">
         <v>100</v>
       </c>
-      <c r="C130" s="55"/>
+      <c r="C130" s="50"/>
       <c r="D130" s="16">
         <v>50</v>
       </c>
-      <c r="E130" s="55"/>
-      <c r="F130" s="43" t="s">
+      <c r="E130" s="50"/>
+      <c r="F130" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="G130" s="55"/>
-      <c r="H130" s="43" t="s">
+      <c r="G130" s="50"/>
+      <c r="H130" s="42" t="s">
         <v>314</v>
       </c>
       <c r="I130" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J130" s="55"/>
+      <c r="J130" s="50"/>
     </row>
     <row r="131" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="55"/>
+      <c r="A131" s="50"/>
       <c r="B131" s="14">
         <v>500</v>
       </c>
-      <c r="C131" s="55"/>
+      <c r="C131" s="50"/>
       <c r="D131" s="16">
         <v>250</v>
       </c>
-      <c r="E131" s="55"/>
-      <c r="F131" s="43" t="s">
+      <c r="E131" s="50"/>
+      <c r="F131" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="G131" s="55"/>
-      <c r="H131" s="43" t="s">
+      <c r="G131" s="50"/>
+      <c r="H131" s="42" t="s">
         <v>315</v>
       </c>
       <c r="I131" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J131" s="55"/>
+      <c r="J131" s="50"/>
     </row>
     <row r="132" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="55"/>
+      <c r="A132" s="50"/>
       <c r="B132" s="14">
         <v>1</v>
       </c>
-      <c r="C132" s="55" t="s">
+      <c r="C132" s="50" t="s">
         <v>76</v>
       </c>
       <c r="D132" s="16">
@@ -4322,45 +4319,45 @@
       <c r="E132" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F132" s="43" t="s">
+      <c r="F132" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="G132" s="55" t="s">
+      <c r="G132" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="H132" s="43" t="s">
+      <c r="H132" s="42" t="s">
         <v>316</v>
       </c>
       <c r="I132" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="J132" s="55" t="s">
+      <c r="J132" s="50" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="55"/>
+      <c r="A133" s="50"/>
       <c r="B133" s="14">
         <v>5</v>
       </c>
-      <c r="C133" s="55"/>
+      <c r="C133" s="50"/>
       <c r="D133" s="16">
         <v>2.5</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F133" s="43" t="s">
+      <c r="F133" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="G133" s="55"/>
-      <c r="H133" s="43" t="s">
+      <c r="G133" s="50"/>
+      <c r="H133" s="42" t="s">
         <v>317</v>
       </c>
       <c r="I133" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J133" s="55"/>
+      <c r="J133" s="50"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
@@ -4377,282 +4374,282 @@
       <c r="J135" s="3"/>
     </row>
     <row r="136" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="50" t="s">
+      <c r="A136" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="B136" s="52" t="s">
+      <c r="B136" s="68" t="s">
         <v>320</v>
       </c>
-      <c r="C136" s="53"/>
-      <c r="D136" s="53"/>
-      <c r="E136" s="54"/>
-      <c r="F136" s="50" t="s">
+      <c r="C136" s="69"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="70"/>
+      <c r="F136" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="G136" s="40"/>
-      <c r="H136" s="40"/>
-      <c r="I136" s="40"/>
-      <c r="J136" s="40"/>
+      <c r="G136" s="39"/>
+      <c r="H136" s="39"/>
+      <c r="I136" s="39"/>
+      <c r="J136" s="39"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="51"/>
-      <c r="B137" s="39" t="s">
+      <c r="A137" s="67"/>
+      <c r="B137" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="C137" s="39" t="s">
+      <c r="C137" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="D137" s="39" t="s">
+      <c r="D137" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="E137" s="39" t="s">
+      <c r="E137" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="F137" s="51"/>
-      <c r="G137" s="40"/>
-      <c r="H137" s="40"/>
-      <c r="I137" s="40"/>
-      <c r="J137" s="40"/>
+      <c r="F137" s="67"/>
+      <c r="G137" s="39"/>
+      <c r="H137" s="39"/>
+      <c r="I137" s="39"/>
+      <c r="J137" s="39"/>
     </row>
     <row r="138" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="41" t="s">
+      <c r="A138" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B138" s="42" t="s">
+      <c r="B138" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="C138" s="42" t="s">
+      <c r="C138" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="D138" s="42" t="s">
+      <c r="D138" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="E138" s="42" t="s">
+      <c r="E138" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="F138" s="55" t="s">
+      <c r="F138" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="G138" s="40"/>
-      <c r="H138" s="40"/>
-      <c r="I138" s="40"/>
-      <c r="J138" s="40"/>
+      <c r="G138" s="39"/>
+      <c r="H138" s="39"/>
+      <c r="I138" s="39"/>
+      <c r="J138" s="39"/>
     </row>
     <row r="139" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="41" t="s">
+      <c r="A139" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B139" s="42" t="s">
+      <c r="B139" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="C139" s="42" t="s">
+      <c r="C139" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="D139" s="42" t="s">
+      <c r="D139" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="E139" s="42" t="s">
+      <c r="E139" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="F139" s="55"/>
-      <c r="G139" s="40"/>
-      <c r="H139" s="40"/>
-      <c r="I139" s="40"/>
-      <c r="J139" s="40"/>
+      <c r="F139" s="50"/>
+      <c r="G139" s="39"/>
+      <c r="H139" s="39"/>
+      <c r="I139" s="39"/>
+      <c r="J139" s="39"/>
     </row>
     <row r="140" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="41" t="s">
+      <c r="A140" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B140" s="42" t="s">
+      <c r="B140" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="C140" s="42" t="s">
+      <c r="C140" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="D140" s="42" t="s">
+      <c r="D140" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="E140" s="42" t="s">
+      <c r="E140" s="41" t="s">
         <v>337</v>
       </c>
-      <c r="F140" s="55"/>
-      <c r="G140" s="40"/>
-      <c r="H140" s="40"/>
-      <c r="I140" s="40"/>
-      <c r="J140" s="40"/>
+      <c r="F140" s="50"/>
+      <c r="G140" s="39"/>
+      <c r="H140" s="39"/>
+      <c r="I140" s="39"/>
+      <c r="J140" s="39"/>
     </row>
     <row r="141" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="44" t="s">
+      <c r="A141" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B141" s="42" t="s">
+      <c r="B141" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="C141" s="42" t="s">
+      <c r="C141" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="D141" s="42" t="s">
+      <c r="D141" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="E141" s="42" t="s">
+      <c r="E141" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="F141" s="55"/>
-      <c r="G141" s="40"/>
-      <c r="H141" s="40"/>
-      <c r="I141" s="40"/>
-      <c r="J141" s="40"/>
+      <c r="F141" s="50"/>
+      <c r="G141" s="39"/>
+      <c r="H141" s="39"/>
+      <c r="I141" s="39"/>
+      <c r="J141" s="39"/>
     </row>
     <row r="142" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="44" t="s">
+      <c r="A142" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B142" s="42" t="s">
+      <c r="B142" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="C142" s="42" t="s">
+      <c r="C142" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="D142" s="42" t="s">
+      <c r="D142" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="E142" s="42" t="s">
+      <c r="E142" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="F142" s="55"/>
-      <c r="G142" s="40"/>
-      <c r="H142" s="40"/>
-      <c r="I142" s="40"/>
-      <c r="J142" s="40"/>
+      <c r="F142" s="50"/>
+      <c r="G142" s="39"/>
+      <c r="H142" s="39"/>
+      <c r="I142" s="39"/>
+      <c r="J142" s="39"/>
     </row>
     <row r="143" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="44" t="s">
+      <c r="A143" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B143" s="42" t="s">
+      <c r="B143" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="C143" s="42" t="s">
+      <c r="C143" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="D143" s="42" t="s">
+      <c r="D143" s="41" t="s">
         <v>348</v>
       </c>
-      <c r="E143" s="42" t="s">
+      <c r="E143" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="F143" s="55"/>
-      <c r="G143" s="40"/>
-      <c r="H143" s="40"/>
-      <c r="I143" s="40"/>
-      <c r="J143" s="40"/>
+      <c r="F143" s="50"/>
+      <c r="G143" s="39"/>
+      <c r="H143" s="39"/>
+      <c r="I143" s="39"/>
+      <c r="J143" s="39"/>
     </row>
     <row r="144" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="45" t="s">
+      <c r="A144" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B144" s="42" t="s">
+      <c r="B144" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="C144" s="42" t="s">
+      <c r="C144" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="D144" s="42" t="s">
+      <c r="D144" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="E144" s="42" t="s">
+      <c r="E144" s="41" t="s">
         <v>353</v>
       </c>
-      <c r="F144" s="55"/>
-      <c r="G144" s="40"/>
-      <c r="H144" s="40"/>
-      <c r="I144" s="40"/>
-      <c r="J144" s="40"/>
+      <c r="F144" s="50"/>
+      <c r="G144" s="39"/>
+      <c r="H144" s="39"/>
+      <c r="I144" s="39"/>
+      <c r="J144" s="39"/>
     </row>
     <row r="145" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="45" t="s">
+      <c r="A145" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B145" s="42" t="s">
+      <c r="B145" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="C145" s="42" t="s">
+      <c r="C145" s="41" t="s">
         <v>355</v>
       </c>
-      <c r="D145" s="42" t="s">
+      <c r="D145" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="E145" s="42" t="s">
+      <c r="E145" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="F145" s="55"/>
-      <c r="G145" s="40"/>
-      <c r="H145" s="40"/>
-      <c r="I145" s="40"/>
-      <c r="J145" s="40"/>
+      <c r="F145" s="50"/>
+      <c r="G145" s="39"/>
+      <c r="H145" s="39"/>
+      <c r="I145" s="39"/>
+      <c r="J145" s="39"/>
     </row>
     <row r="146" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="45" t="s">
+      <c r="A146" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B146" s="42" t="s">
+      <c r="B146" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="C146" s="42" t="s">
+      <c r="C146" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="D146" s="42" t="s">
+      <c r="D146" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="E146" s="42" t="s">
+      <c r="E146" s="41" t="s">
         <v>361</v>
       </c>
-      <c r="F146" s="55"/>
-      <c r="G146" s="40"/>
-      <c r="H146" s="40"/>
-      <c r="I146" s="40"/>
-      <c r="J146" s="40"/>
+      <c r="F146" s="50"/>
+      <c r="G146" s="39"/>
+      <c r="H146" s="39"/>
+      <c r="I146" s="39"/>
+      <c r="J146" s="39"/>
     </row>
     <row r="147" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="41" t="s">
+      <c r="A147" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B147" s="42" t="s">
+      <c r="B147" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="C147" s="42" t="s">
+      <c r="C147" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="D147" s="42" t="s">
+      <c r="D147" s="41" t="s">
         <v>364</v>
       </c>
-      <c r="E147" s="42" t="s">
+      <c r="E147" s="41" t="s">
         <v>365</v>
       </c>
-      <c r="F147" s="55"/>
-      <c r="G147" s="40"/>
-      <c r="H147" s="40"/>
-      <c r="I147" s="40"/>
-      <c r="J147" s="40"/>
+      <c r="F147" s="50"/>
+      <c r="G147" s="39"/>
+      <c r="H147" s="39"/>
+      <c r="I147" s="39"/>
+      <c r="J147" s="39"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" s="40"/>
-      <c r="B148" s="40"/>
-      <c r="C148" s="40"/>
-      <c r="D148" s="40"/>
-      <c r="E148" s="40"/>
-      <c r="F148" s="40"/>
-      <c r="G148" s="40"/>
-      <c r="H148" s="40"/>
-      <c r="I148" s="40"/>
-      <c r="J148" s="40"/>
+      <c r="A148" s="39"/>
+      <c r="B148" s="39"/>
+      <c r="C148" s="39"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="39"/>
+      <c r="F148" s="39"/>
+      <c r="G148" s="39"/>
+      <c r="H148" s="39"/>
+      <c r="I148" s="39"/>
+      <c r="J148" s="39"/>
     </row>
     <row r="150" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A150" s="46" t="s">
+      <c r="A150" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="B150" s="46"/>
+      <c r="B150" s="63"/>
       <c r="C150" s="33"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
@@ -4661,32 +4658,32 @@
       <c r="H150" s="1"/>
     </row>
     <row r="151" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A151" s="46" t="s">
+      <c r="A151" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="B151" s="46"/>
+      <c r="B151" s="63"/>
       <c r="C151" s="7"/>
       <c r="D151" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E151" s="56" t="s">
+      <c r="E151" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="F151" s="57"/>
+      <c r="F151" s="72"/>
       <c r="G151" s="9" t="s">
         <v>43</v>
       </c>
       <c r="H151" s="10"/>
     </row>
     <row r="152" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="46" t="s">
+      <c r="A152" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B152" s="46"/>
-      <c r="C152" s="47" t="s">
+      <c r="B152" s="63"/>
+      <c r="C152" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D152" s="47"/>
+      <c r="D152" s="64"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -4694,45 +4691,133 @@
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="E129:E131"/>
-    <mergeCell ref="G129:G131"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="E119:E121"/>
-    <mergeCell ref="G119:G121"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="E124:E126"/>
-    <mergeCell ref="G124:G126"/>
-    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="G35:H38"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="F138:F147"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="J129:J131"/>
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="E35:F39"/>
+    <mergeCell ref="I35:J39"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:D58"/>
+    <mergeCell ref="E54:F58"/>
+    <mergeCell ref="J114:J116"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B111:C113"/>
+    <mergeCell ref="D111:E113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="F111:G113"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="G114:G116"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:D39"/>
+    <mergeCell ref="H111:J112"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="I41:J42"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="I43:J51"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="A83:J83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="I84:J85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="J119:J121"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="I86:J94"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
     <mergeCell ref="J122:J123"/>
     <mergeCell ref="J124:J126"/>
     <mergeCell ref="J127:J128"/>
@@ -4757,133 +4842,45 @@
     <mergeCell ref="I74:J82"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="E75:F75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="J119:J121"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="I86:J94"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="A83:J83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="I84:J85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="I41:J42"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="I43:J51"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B111:C113"/>
-    <mergeCell ref="D111:E113"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="F111:G113"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="G114:G116"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:D39"/>
-    <mergeCell ref="H111:J112"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="G35:H38"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="F138:F147"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="J129:J131"/>
-    <mergeCell ref="J132:J133"/>
-    <mergeCell ref="E35:F39"/>
-    <mergeCell ref="I35:J39"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:D58"/>
-    <mergeCell ref="E54:F58"/>
-    <mergeCell ref="J114:J116"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="E129:E131"/>
+    <mergeCell ref="G129:G131"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="G119:G121"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="G124:G126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.78125" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Shablon/TDS2014B.xlsx
+++ b/Shablon/TDS2014B.xlsx
@@ -99,40 +99,6 @@
     <t>(50,0 ± 0,5) Гц</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1 Внешний осмотр: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>соответствует</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2 Опробование: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>соответствует</t>
-    </r>
-  </si>
-  <si>
     <t>(23 ± 5)°С</t>
   </si>
   <si>
@@ -1219,6 +1185,38 @@
   </si>
   <si>
     <t>3 Определение метрологических характеристик.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 Внешний осмотр: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>соответствует</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 Опробование: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>соответствует</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1595,89 +1593,89 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1988,8 +1986,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2018,7 +2016,7 @@
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
@@ -2046,7 +2044,7 @@
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
@@ -2084,14 +2082,14 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="A7" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="20" t="s">
         <v>8</v>
       </c>
@@ -2112,13 +2110,13 @@
       <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
+      <c r="A9" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="31"/>
@@ -2130,11 +2128,11 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
+      <c r="A10" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="37" t="s">
         <v>8</v>
       </c>
@@ -2146,11 +2144,11 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
+      <c r="A11" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -2160,11 +2158,11 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
+      <c r="A12" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="26"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -2174,11 +2172,11 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
+      <c r="A13" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="37" t="s">
         <v>9</v>
       </c>
@@ -2190,13 +2188,13 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
+      <c r="A14" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -2206,13 +2204,13 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
+      <c r="A15" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -2248,113 +2246,113 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51" t="s">
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52" t="s">
+      <c r="F18" s="47"/>
+      <c r="G18" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="52"/>
+      <c r="H18" s="58"/>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="48"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="72"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47" t="s">
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48" t="s">
+      <c r="F21" s="71"/>
+      <c r="G21" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="48"/>
+      <c r="H21" s="72"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47" t="s">
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48" t="s">
+      <c r="F22" s="71"/>
+      <c r="G22" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="48"/>
+      <c r="H22" s="72"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48" t="s">
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="48"/>
+      <c r="H23" s="72"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48" t="s">
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="48"/>
+      <c r="H24" s="72"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2370,7 +2368,7 @@
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -2394,7 +2392,7 @@
     </row>
     <row r="28" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>366</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2418,7 +2416,7 @@
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>367</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2442,7 +2440,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2468,7 +2466,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2481,362 +2479,362 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="J35" s="51"/>
+      <c r="A35" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="47"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="52"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="52"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="52"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="52"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="16" t="s">
         <v>2</v>
       </c>
       <c r="H39" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
     </row>
     <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="57"/>
+      <c r="G41" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53" t="s">
+      <c r="H41" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F41" s="53"/>
-      <c r="G41" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="I41" s="50">
+      <c r="I41" s="54">
         <v>4</v>
       </c>
-      <c r="J41" s="50"/>
+      <c r="J41" s="54"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="57"/>
+      <c r="G42" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53" t="s">
+      <c r="H42" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F42" s="53"/>
-      <c r="G42" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="57"/>
+      <c r="G43" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53" t="s">
+      <c r="H43" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I43" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="J43" s="54"/>
+      <c r="I43" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="J43" s="65"/>
     </row>
     <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="57"/>
+      <c r="G44" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53" t="s">
+      <c r="H44" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F44" s="53"/>
-      <c r="G44" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="57"/>
+      <c r="G45" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53" t="s">
+      <c r="H45" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F45" s="53"/>
-      <c r="G45" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" s="57"/>
+      <c r="G46" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53" t="s">
+      <c r="H46" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F46" s="53"/>
-      <c r="G46" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="57"/>
+      <c r="G47" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53" t="s">
+      <c r="H47" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="53"/>
-      <c r="G47" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
     </row>
     <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="57"/>
+      <c r="G48" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53" t="s">
+      <c r="H48" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="53"/>
-      <c r="G48" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49" s="57"/>
+      <c r="G49" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53" t="s">
+      <c r="H49" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F49" s="53"/>
-      <c r="G49" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
     </row>
     <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="F50" s="57"/>
+      <c r="G50" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53" t="s">
+      <c r="H50" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F50" s="53"/>
-      <c r="G50" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="F51" s="57"/>
+      <c r="G51" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53" t="s">
+      <c r="H51" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F51" s="53"/>
-      <c r="G51" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
@@ -2863,1505 +2861,1505 @@
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="J54" s="51"/>
+      <c r="A54" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="J54" s="47"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="52"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="52"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="52"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
+      <c r="A57" s="58"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="52"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
       <c r="G58" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H58" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="57" t="s">
+      <c r="A59" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
     </row>
     <row r="60" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="F60" s="57"/>
+      <c r="G60" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53" t="s">
+      <c r="H60" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="53"/>
-      <c r="G60" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I60" s="50">
+      <c r="I60" s="54">
         <v>4</v>
       </c>
-      <c r="J60" s="50"/>
+      <c r="J60" s="54"/>
     </row>
     <row r="61" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" s="57"/>
+      <c r="G61" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53" t="s">
+      <c r="H61" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F61" s="53"/>
-      <c r="G61" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
     </row>
     <row r="62" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="F62" s="57"/>
+      <c r="G62" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53" t="s">
+      <c r="H62" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F62" s="53"/>
-      <c r="G62" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="I62" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="J62" s="54"/>
+      <c r="I62" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="J62" s="65"/>
     </row>
     <row r="63" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="F63" s="57"/>
+      <c r="G63" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53" t="s">
+      <c r="H63" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F63" s="53"/>
-      <c r="G63" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
     </row>
     <row r="64" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F64" s="57"/>
+      <c r="G64" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53" t="s">
+      <c r="H64" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="F64" s="53"/>
-      <c r="G64" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="65"/>
     </row>
     <row r="65" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F65" s="57"/>
+      <c r="G65" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53" t="s">
+      <c r="H65" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F65" s="53"/>
-      <c r="G65" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
     </row>
     <row r="66" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="F66" s="57"/>
+      <c r="G66" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53" t="s">
+      <c r="H66" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F66" s="53"/>
-      <c r="G66" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="I66" s="54"/>
-      <c r="J66" s="54"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
     </row>
     <row r="67" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C67" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="F67" s="57"/>
+      <c r="G67" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53" t="s">
+      <c r="H67" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F67" s="53"/>
-      <c r="G67" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
     </row>
     <row r="68" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="F68" s="57"/>
+      <c r="G68" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53" t="s">
+      <c r="H68" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="F68" s="53"/>
-      <c r="G68" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
     </row>
     <row r="69" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="F69" s="57"/>
+      <c r="G69" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53" t="s">
+      <c r="H69" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F69" s="53"/>
-      <c r="G69" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
     </row>
     <row r="70" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="F70" s="57"/>
+      <c r="G70" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53" t="s">
+      <c r="H70" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="F70" s="53"/>
-      <c r="G70" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="I70" s="54"/>
-      <c r="J70" s="54"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" s="56"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
+      <c r="A71" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="67"/>
     </row>
     <row r="72" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C72" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="F72" s="57"/>
+      <c r="G72" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53" t="s">
+      <c r="H72" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="53"/>
-      <c r="G72" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="I72" s="50">
+      <c r="I72" s="54">
         <v>4</v>
       </c>
-      <c r="J72" s="50"/>
+      <c r="J72" s="54"/>
     </row>
     <row r="73" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C73" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="F73" s="57"/>
+      <c r="G73" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53" t="s">
+      <c r="H73" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="F73" s="53"/>
-      <c r="G73" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
     </row>
     <row r="74" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C74" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="F74" s="57"/>
+      <c r="G74" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D74" s="53"/>
-      <c r="E74" s="53" t="s">
+      <c r="H74" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="F74" s="53"/>
-      <c r="G74" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="I74" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="J74" s="54"/>
+      <c r="I74" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="J74" s="65"/>
     </row>
     <row r="75" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="F75" s="57"/>
+      <c r="G75" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53" t="s">
+      <c r="H75" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="F75" s="53"/>
-      <c r="G75" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I75" s="54"/>
-      <c r="J75" s="54"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
     </row>
     <row r="76" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C76" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="D76" s="57"/>
+      <c r="E76" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="F76" s="57"/>
+      <c r="G76" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53" t="s">
+      <c r="H76" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F76" s="53"/>
-      <c r="G76" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="65"/>
     </row>
     <row r="77" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C77" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="D77" s="57"/>
+      <c r="E77" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="F77" s="57"/>
+      <c r="G77" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53" t="s">
+      <c r="H77" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="F77" s="53"/>
-      <c r="G77" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="65"/>
     </row>
     <row r="78" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C78" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C78" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="D78" s="57"/>
+      <c r="E78" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="F78" s="57"/>
+      <c r="G78" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53" t="s">
+      <c r="H78" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F78" s="53"/>
-      <c r="G78" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="I78" s="54"/>
-      <c r="J78" s="54"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="65"/>
     </row>
     <row r="79" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C79" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="F79" s="57"/>
+      <c r="G79" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D79" s="53"/>
-      <c r="E79" s="53" t="s">
+      <c r="H79" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="F79" s="53"/>
-      <c r="G79" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54"/>
+      <c r="I79" s="65"/>
+      <c r="J79" s="65"/>
     </row>
     <row r="80" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C80" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="D80" s="57"/>
+      <c r="E80" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="F80" s="57"/>
+      <c r="G80" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="D80" s="53"/>
-      <c r="E80" s="53" t="s">
+      <c r="H80" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="F80" s="53"/>
-      <c r="G80" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="65"/>
     </row>
     <row r="81" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C81" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="D81" s="57"/>
+      <c r="E81" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="F81" s="57"/>
+      <c r="G81" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="D81" s="53"/>
-      <c r="E81" s="53" t="s">
+      <c r="H81" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="F81" s="53"/>
-      <c r="G81" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="I81" s="54"/>
-      <c r="J81" s="54"/>
+      <c r="I81" s="65"/>
+      <c r="J81" s="65"/>
     </row>
     <row r="82" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C82" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="D82" s="57"/>
+      <c r="E82" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="F82" s="57"/>
+      <c r="G82" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D82" s="53"/>
-      <c r="E82" s="53" t="s">
+      <c r="H82" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="F82" s="53"/>
-      <c r="G82" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="I82" s="54"/>
-      <c r="J82" s="54"/>
+      <c r="I82" s="65"/>
+      <c r="J82" s="65"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="56"/>
+      <c r="A83" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83" s="67"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
     </row>
     <row r="84" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C84" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="D84" s="57"/>
+      <c r="E84" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="F84" s="57"/>
+      <c r="G84" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D84" s="53"/>
-      <c r="E84" s="53" t="s">
+      <c r="H84" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="F84" s="53"/>
-      <c r="G84" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="I84" s="50">
+      <c r="I84" s="54">
         <v>4</v>
       </c>
-      <c r="J84" s="50"/>
+      <c r="J84" s="54"/>
     </row>
     <row r="85" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C85" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="D85" s="57"/>
+      <c r="E85" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="F85" s="57"/>
+      <c r="G85" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="D85" s="53"/>
-      <c r="E85" s="53" t="s">
+      <c r="H85" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="F85" s="53"/>
-      <c r="G85" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="I85" s="50"/>
-      <c r="J85" s="50"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
     </row>
     <row r="86" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C86" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="F86" s="57"/>
+      <c r="G86" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D86" s="53"/>
-      <c r="E86" s="53" t="s">
+      <c r="H86" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="F86" s="53"/>
-      <c r="G86" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="I86" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="J86" s="54"/>
+      <c r="I86" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="J86" s="65"/>
     </row>
     <row r="87" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C87" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="D87" s="57"/>
+      <c r="E87" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="F87" s="57"/>
+      <c r="G87" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="D87" s="53"/>
-      <c r="E87" s="53" t="s">
+      <c r="H87" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="F87" s="53"/>
-      <c r="G87" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="I87" s="54"/>
-      <c r="J87" s="54"/>
+      <c r="I87" s="65"/>
+      <c r="J87" s="65"/>
     </row>
     <row r="88" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C88" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="D88" s="57"/>
+      <c r="E88" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="F88" s="57"/>
+      <c r="G88" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D88" s="53"/>
-      <c r="E88" s="53" t="s">
+      <c r="H88" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="F88" s="53"/>
-      <c r="G88" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="I88" s="54"/>
-      <c r="J88" s="54"/>
+      <c r="I88" s="65"/>
+      <c r="J88" s="65"/>
     </row>
     <row r="89" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C89" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="D89" s="57"/>
+      <c r="E89" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="F89" s="57"/>
+      <c r="G89" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="D89" s="53"/>
-      <c r="E89" s="53" t="s">
+      <c r="H89" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F89" s="53"/>
-      <c r="G89" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="I89" s="54"/>
-      <c r="J89" s="54"/>
+      <c r="I89" s="65"/>
+      <c r="J89" s="65"/>
     </row>
     <row r="90" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C90" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="D90" s="57"/>
+      <c r="E90" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="F90" s="57"/>
+      <c r="G90" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D90" s="53"/>
-      <c r="E90" s="53" t="s">
+      <c r="H90" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="F90" s="53"/>
-      <c r="G90" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="H90" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="I90" s="54"/>
-      <c r="J90" s="54"/>
+      <c r="I90" s="65"/>
+      <c r="J90" s="65"/>
     </row>
     <row r="91" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C91" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="D91" s="57"/>
+      <c r="E91" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="F91" s="57"/>
+      <c r="G91" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D91" s="53"/>
-      <c r="E91" s="53" t="s">
+      <c r="H91" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="F91" s="53"/>
-      <c r="G91" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="I91" s="54"/>
-      <c r="J91" s="54"/>
+      <c r="I91" s="65"/>
+      <c r="J91" s="65"/>
     </row>
     <row r="92" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C92" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="D92" s="57"/>
+      <c r="E92" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="F92" s="57"/>
+      <c r="G92" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="D92" s="53"/>
-      <c r="E92" s="53" t="s">
+      <c r="H92" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="F92" s="53"/>
-      <c r="G92" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="H92" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="I92" s="54"/>
-      <c r="J92" s="54"/>
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
     </row>
     <row r="93" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C93" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="D93" s="57"/>
+      <c r="E93" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="F93" s="57"/>
+      <c r="G93" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="D93" s="53"/>
-      <c r="E93" s="53" t="s">
+      <c r="H93" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="F93" s="53"/>
-      <c r="G93" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="H93" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="I93" s="54"/>
-      <c r="J93" s="54"/>
+      <c r="I93" s="65"/>
+      <c r="J93" s="65"/>
     </row>
     <row r="94" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C94" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="D94" s="57"/>
+      <c r="E94" s="57" t="s">
+        <v>273</v>
+      </c>
+      <c r="F94" s="57"/>
+      <c r="G94" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="D94" s="53"/>
-      <c r="E94" s="53" t="s">
+      <c r="H94" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="F94" s="53"/>
-      <c r="G94" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="H94" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="I94" s="54"/>
-      <c r="J94" s="54"/>
+      <c r="I94" s="65"/>
+      <c r="J94" s="65"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B111" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C111" s="52"/>
-      <c r="D111" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="E111" s="51"/>
-      <c r="F111" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="G111" s="51"/>
-      <c r="H111" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="I111" s="52"/>
-      <c r="J111" s="52"/>
+      <c r="A111" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C111" s="58"/>
+      <c r="D111" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E111" s="47"/>
+      <c r="F111" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="G111" s="47"/>
+      <c r="H111" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="I111" s="58"/>
+      <c r="J111" s="58"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="52"/>
-      <c r="B112" s="52"/>
-      <c r="C112" s="52"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="51"/>
-      <c r="G112" s="51"/>
-      <c r="H112" s="52"/>
-      <c r="I112" s="52"/>
-      <c r="J112" s="52"/>
+      <c r="A112" s="58"/>
+      <c r="B112" s="58"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="47"/>
+      <c r="G112" s="47"/>
+      <c r="H112" s="58"/>
+      <c r="I112" s="58"/>
+      <c r="J112" s="58"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="52"/>
-      <c r="B113" s="52"/>
-      <c r="C113" s="52"/>
-      <c r="D113" s="51"/>
-      <c r="E113" s="51"/>
-      <c r="F113" s="51"/>
-      <c r="G113" s="51"/>
+      <c r="A113" s="58"/>
+      <c r="B113" s="58"/>
+      <c r="C113" s="58"/>
+      <c r="D113" s="47"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="47"/>
+      <c r="G113" s="47"/>
       <c r="H113" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I113" s="61" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J113" s="62"/>
     </row>
     <row r="114" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="50">
+      <c r="A114" s="54">
         <v>1</v>
       </c>
       <c r="B114" s="14">
         <v>5</v>
       </c>
-      <c r="C114" s="50" t="s">
-        <v>70</v>
+      <c r="C114" s="54" t="s">
+        <v>68</v>
       </c>
       <c r="D114" s="16">
         <v>2.5</v>
       </c>
-      <c r="E114" s="50" t="s">
-        <v>71</v>
+      <c r="E114" s="54" t="s">
+        <v>69</v>
       </c>
       <c r="F114" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="G114" s="50" t="s">
-        <v>70</v>
+        <v>276</v>
+      </c>
+      <c r="G114" s="54" t="s">
+        <v>68</v>
       </c>
       <c r="H114" s="42" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I114" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J114" s="50" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="J114" s="54" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="50"/>
+      <c r="A115" s="54"/>
       <c r="B115" s="14">
         <v>100</v>
       </c>
-      <c r="C115" s="50"/>
+      <c r="C115" s="54"/>
       <c r="D115" s="16">
         <v>50</v>
       </c>
-      <c r="E115" s="50"/>
+      <c r="E115" s="54"/>
       <c r="F115" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="G115" s="50"/>
+        <v>277</v>
+      </c>
+      <c r="G115" s="54"/>
       <c r="H115" s="42" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J115" s="50"/>
+        <v>77</v>
+      </c>
+      <c r="J115" s="54"/>
     </row>
     <row r="116" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="50"/>
+      <c r="A116" s="54"/>
       <c r="B116" s="14">
         <v>500</v>
       </c>
-      <c r="C116" s="50"/>
+      <c r="C116" s="54"/>
       <c r="D116" s="16">
         <v>250</v>
       </c>
-      <c r="E116" s="50"/>
+      <c r="E116" s="54"/>
       <c r="F116" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="G116" s="50"/>
+        <v>278</v>
+      </c>
+      <c r="G116" s="54"/>
       <c r="H116" s="42" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J116" s="50"/>
+        <v>71</v>
+      </c>
+      <c r="J116" s="54"/>
     </row>
     <row r="117" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="50"/>
+      <c r="A117" s="54"/>
       <c r="B117" s="14">
         <v>1</v>
       </c>
-      <c r="C117" s="50" t="s">
-        <v>76</v>
+      <c r="C117" s="54" t="s">
+        <v>74</v>
       </c>
       <c r="D117" s="16">
         <v>500</v>
       </c>
       <c r="E117" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F117" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="G117" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="H117" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="I117" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F117" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="G117" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="H117" s="42" t="s">
-        <v>301</v>
-      </c>
-      <c r="I117" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J117" s="50" t="s">
-        <v>83</v>
+      <c r="J117" s="54" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="50"/>
+      <c r="A118" s="54"/>
       <c r="B118" s="14">
         <v>5</v>
       </c>
-      <c r="C118" s="50"/>
+      <c r="C118" s="54"/>
       <c r="D118" s="16">
         <v>2.5</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F118" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="G118" s="50"/>
+        <v>280</v>
+      </c>
+      <c r="G118" s="54"/>
       <c r="H118" s="42" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I118" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J118" s="50"/>
+        <v>79</v>
+      </c>
+      <c r="J118" s="54"/>
     </row>
     <row r="119" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="50">
+      <c r="A119" s="54">
         <v>2</v>
       </c>
       <c r="B119" s="14">
         <v>5</v>
       </c>
-      <c r="C119" s="50" t="s">
-        <v>70</v>
+      <c r="C119" s="54" t="s">
+        <v>68</v>
       </c>
       <c r="D119" s="16">
         <v>2.5</v>
       </c>
-      <c r="E119" s="50" t="s">
-        <v>71</v>
+      <c r="E119" s="54" t="s">
+        <v>69</v>
       </c>
       <c r="F119" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="G119" s="50" t="s">
-        <v>70</v>
+        <v>281</v>
+      </c>
+      <c r="G119" s="54" t="s">
+        <v>68</v>
       </c>
       <c r="H119" s="42" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I119" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J119" s="50" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="J119" s="54" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="50"/>
+      <c r="A120" s="54"/>
       <c r="B120" s="14">
         <v>100</v>
       </c>
-      <c r="C120" s="50"/>
+      <c r="C120" s="54"/>
       <c r="D120" s="16">
         <v>50</v>
       </c>
-      <c r="E120" s="50"/>
+      <c r="E120" s="54"/>
       <c r="F120" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="G120" s="50"/>
+        <v>282</v>
+      </c>
+      <c r="G120" s="54"/>
       <c r="H120" s="42" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I120" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J120" s="50"/>
+        <v>77</v>
+      </c>
+      <c r="J120" s="54"/>
     </row>
     <row r="121" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="50"/>
+      <c r="A121" s="54"/>
       <c r="B121" s="14">
         <v>500</v>
       </c>
-      <c r="C121" s="50"/>
+      <c r="C121" s="54"/>
       <c r="D121" s="16">
         <v>250</v>
       </c>
-      <c r="E121" s="50"/>
+      <c r="E121" s="54"/>
       <c r="F121" s="42" t="s">
-        <v>285</v>
-      </c>
-      <c r="G121" s="50"/>
+        <v>283</v>
+      </c>
+      <c r="G121" s="54"/>
       <c r="H121" s="42" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I121" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J121" s="50"/>
+        <v>71</v>
+      </c>
+      <c r="J121" s="54"/>
     </row>
     <row r="122" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="50"/>
+      <c r="A122" s="54"/>
       <c r="B122" s="14">
         <v>1</v>
       </c>
-      <c r="C122" s="50" t="s">
-        <v>76</v>
+      <c r="C122" s="54" t="s">
+        <v>74</v>
       </c>
       <c r="D122" s="16">
         <v>500</v>
       </c>
       <c r="E122" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F122" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="G122" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="H122" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="I122" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F122" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="G122" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="H122" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="I122" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J122" s="50" t="s">
-        <v>83</v>
+      <c r="J122" s="54" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="50"/>
+      <c r="A123" s="54"/>
       <c r="B123" s="14">
         <v>5</v>
       </c>
-      <c r="C123" s="50"/>
+      <c r="C123" s="54"/>
       <c r="D123" s="16">
         <v>2.5</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F123" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="G123" s="50"/>
+        <v>285</v>
+      </c>
+      <c r="G123" s="54"/>
       <c r="H123" s="42" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I123" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J123" s="50"/>
+        <v>79</v>
+      </c>
+      <c r="J123" s="54"/>
     </row>
     <row r="124" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="50">
+      <c r="A124" s="54">
         <v>3</v>
       </c>
       <c r="B124" s="14">
         <v>5</v>
       </c>
-      <c r="C124" s="50" t="s">
-        <v>70</v>
+      <c r="C124" s="54" t="s">
+        <v>68</v>
       </c>
       <c r="D124" s="16">
         <v>2.5</v>
       </c>
-      <c r="E124" s="50" t="s">
-        <v>71</v>
+      <c r="E124" s="54" t="s">
+        <v>69</v>
       </c>
       <c r="F124" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="G124" s="50" t="s">
-        <v>70</v>
+        <v>286</v>
+      </c>
+      <c r="G124" s="54" t="s">
+        <v>68</v>
       </c>
       <c r="H124" s="42" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I124" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J124" s="50" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="J124" s="54" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="50"/>
+      <c r="A125" s="54"/>
       <c r="B125" s="14">
         <v>100</v>
       </c>
-      <c r="C125" s="50"/>
+      <c r="C125" s="54"/>
       <c r="D125" s="16">
         <v>50</v>
       </c>
-      <c r="E125" s="50"/>
+      <c r="E125" s="54"/>
       <c r="F125" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="G125" s="50"/>
+        <v>287</v>
+      </c>
+      <c r="G125" s="54"/>
       <c r="H125" s="42" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I125" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J125" s="50"/>
+        <v>77</v>
+      </c>
+      <c r="J125" s="54"/>
     </row>
     <row r="126" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="50"/>
+      <c r="A126" s="54"/>
       <c r="B126" s="14">
         <v>500</v>
       </c>
-      <c r="C126" s="50"/>
+      <c r="C126" s="54"/>
       <c r="D126" s="16">
         <v>250</v>
       </c>
-      <c r="E126" s="50"/>
+      <c r="E126" s="54"/>
       <c r="F126" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="G126" s="50"/>
+        <v>288</v>
+      </c>
+      <c r="G126" s="54"/>
       <c r="H126" s="42" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I126" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J126" s="50"/>
+        <v>71</v>
+      </c>
+      <c r="J126" s="54"/>
     </row>
     <row r="127" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="50"/>
+      <c r="A127" s="54"/>
       <c r="B127" s="14">
         <v>1</v>
       </c>
-      <c r="C127" s="50" t="s">
-        <v>76</v>
+      <c r="C127" s="54" t="s">
+        <v>74</v>
       </c>
       <c r="D127" s="16">
         <v>500</v>
       </c>
       <c r="E127" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F127" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="G127" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="H127" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="I127" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F127" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="G127" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="H127" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="I127" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J127" s="50" t="s">
-        <v>83</v>
+      <c r="J127" s="54" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="50"/>
+      <c r="A128" s="54"/>
       <c r="B128" s="14">
         <v>5</v>
       </c>
-      <c r="C128" s="50"/>
+      <c r="C128" s="54"/>
       <c r="D128" s="16">
         <v>2.5</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F128" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="G128" s="50"/>
+        <v>290</v>
+      </c>
+      <c r="G128" s="54"/>
       <c r="H128" s="42" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I128" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J128" s="50"/>
+        <v>79</v>
+      </c>
+      <c r="J128" s="54"/>
     </row>
     <row r="129" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="50">
+      <c r="A129" s="54">
         <v>4</v>
       </c>
       <c r="B129" s="14">
         <v>5</v>
       </c>
-      <c r="C129" s="50" t="s">
-        <v>70</v>
+      <c r="C129" s="54" t="s">
+        <v>68</v>
       </c>
       <c r="D129" s="16">
         <v>2.5</v>
       </c>
-      <c r="E129" s="50" t="s">
-        <v>71</v>
+      <c r="E129" s="54" t="s">
+        <v>69</v>
       </c>
       <c r="F129" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="G129" s="50" t="s">
-        <v>70</v>
+        <v>291</v>
+      </c>
+      <c r="G129" s="54" t="s">
+        <v>68</v>
       </c>
       <c r="H129" s="42" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I129" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J129" s="50" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="J129" s="54" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="50"/>
+      <c r="A130" s="54"/>
       <c r="B130" s="14">
         <v>100</v>
       </c>
-      <c r="C130" s="50"/>
+      <c r="C130" s="54"/>
       <c r="D130" s="16">
         <v>50</v>
       </c>
-      <c r="E130" s="50"/>
+      <c r="E130" s="54"/>
       <c r="F130" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="G130" s="50"/>
+        <v>292</v>
+      </c>
+      <c r="G130" s="54"/>
       <c r="H130" s="42" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J130" s="50"/>
+        <v>77</v>
+      </c>
+      <c r="J130" s="54"/>
     </row>
     <row r="131" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="50"/>
+      <c r="A131" s="54"/>
       <c r="B131" s="14">
         <v>500</v>
       </c>
-      <c r="C131" s="50"/>
+      <c r="C131" s="54"/>
       <c r="D131" s="16">
         <v>250</v>
       </c>
-      <c r="E131" s="50"/>
+      <c r="E131" s="54"/>
       <c r="F131" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="G131" s="50"/>
+        <v>293</v>
+      </c>
+      <c r="G131" s="54"/>
       <c r="H131" s="42" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I131" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J131" s="50"/>
+        <v>71</v>
+      </c>
+      <c r="J131" s="54"/>
     </row>
     <row r="132" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="50"/>
+      <c r="A132" s="54"/>
       <c r="B132" s="14">
         <v>1</v>
       </c>
-      <c r="C132" s="50" t="s">
-        <v>76</v>
+      <c r="C132" s="54" t="s">
+        <v>74</v>
       </c>
       <c r="D132" s="16">
         <v>500</v>
       </c>
       <c r="E132" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F132" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="G132" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="H132" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="I132" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F132" s="42" t="s">
-        <v>296</v>
-      </c>
-      <c r="G132" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="H132" s="42" t="s">
-        <v>316</v>
-      </c>
-      <c r="I132" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J132" s="50" t="s">
-        <v>83</v>
+      <c r="J132" s="54" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="50"/>
+      <c r="A133" s="54"/>
       <c r="B133" s="14">
         <v>5</v>
       </c>
-      <c r="C133" s="50"/>
+      <c r="C133" s="54"/>
       <c r="D133" s="16">
         <v>2.5</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F133" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="G133" s="50"/>
+        <v>295</v>
+      </c>
+      <c r="G133" s="54"/>
       <c r="H133" s="42" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I133" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J133" s="50"/>
+        <v>79</v>
+      </c>
+      <c r="J133" s="54"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4374,17 +4372,17 @@
       <c r="J135" s="3"/>
     </row>
     <row r="136" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="66" t="s">
+      <c r="A136" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="B136" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="C136" s="52"/>
+      <c r="D136" s="52"/>
+      <c r="E136" s="53"/>
+      <c r="F136" s="49" t="s">
         <v>319</v>
-      </c>
-      <c r="B136" s="68" t="s">
-        <v>320</v>
-      </c>
-      <c r="C136" s="69"/>
-      <c r="D136" s="69"/>
-      <c r="E136" s="70"/>
-      <c r="F136" s="66" t="s">
-        <v>321</v>
       </c>
       <c r="G136" s="39"/>
       <c r="H136" s="39"/>
@@ -4392,20 +4390,20 @@
       <c r="J136" s="39"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="67"/>
+      <c r="A137" s="50"/>
       <c r="B137" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="C137" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D137" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="C137" s="38" t="s">
+      <c r="E137" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="D137" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="E137" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="F137" s="67"/>
+      <c r="F137" s="50"/>
       <c r="G137" s="39"/>
       <c r="H137" s="39"/>
       <c r="I137" s="39"/>
@@ -4413,22 +4411,22 @@
     </row>
     <row r="138" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A138" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B138" s="41" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C138" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="D138" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="E138" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="D138" s="41" t="s">
+      <c r="F138" s="54" t="s">
         <v>327</v>
-      </c>
-      <c r="E138" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="F138" s="50" t="s">
-        <v>329</v>
       </c>
       <c r="G138" s="39"/>
       <c r="H138" s="39"/>
@@ -4437,21 +4435,21 @@
     </row>
     <row r="139" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A139" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B139" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="C139" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="D139" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="C139" s="41" t="s">
+      <c r="E139" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="D139" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="E139" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="F139" s="50"/>
+      <c r="F139" s="54"/>
       <c r="G139" s="39"/>
       <c r="H139" s="39"/>
       <c r="I139" s="39"/>
@@ -4459,21 +4457,21 @@
     </row>
     <row r="140" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A140" s="40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B140" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="C140" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="D140" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="C140" s="41" t="s">
+      <c r="E140" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="D140" s="41" t="s">
-        <v>336</v>
-      </c>
-      <c r="E140" s="41" t="s">
-        <v>337</v>
-      </c>
-      <c r="F140" s="50"/>
+      <c r="F140" s="54"/>
       <c r="G140" s="39"/>
       <c r="H140" s="39"/>
       <c r="I140" s="39"/>
@@ -4481,21 +4479,21 @@
     </row>
     <row r="141" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A141" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B141" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="C141" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="D141" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="C141" s="41" t="s">
+      <c r="E141" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="D141" s="41" t="s">
-        <v>340</v>
-      </c>
-      <c r="E141" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="F141" s="50"/>
+      <c r="F141" s="54"/>
       <c r="G141" s="39"/>
       <c r="H141" s="39"/>
       <c r="I141" s="39"/>
@@ -4503,21 +4501,21 @@
     </row>
     <row r="142" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A142" s="43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B142" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="C142" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="D142" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="C142" s="41" t="s">
+      <c r="E142" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="D142" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="E142" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="F142" s="50"/>
+      <c r="F142" s="54"/>
       <c r="G142" s="39"/>
       <c r="H142" s="39"/>
       <c r="I142" s="39"/>
@@ -4525,21 +4523,21 @@
     </row>
     <row r="143" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A143" s="43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B143" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="C143" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="D143" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="C143" s="41" t="s">
+      <c r="E143" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="D143" s="41" t="s">
-        <v>348</v>
-      </c>
-      <c r="E143" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="F143" s="50"/>
+      <c r="F143" s="54"/>
       <c r="G143" s="39"/>
       <c r="H143" s="39"/>
       <c r="I143" s="39"/>
@@ -4547,21 +4545,21 @@
     </row>
     <row r="144" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A144" s="44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B144" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="C144" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="D144" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="C144" s="41" t="s">
+      <c r="E144" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="D144" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="E144" s="41" t="s">
-        <v>353</v>
-      </c>
-      <c r="F144" s="50"/>
+      <c r="F144" s="54"/>
       <c r="G144" s="39"/>
       <c r="H144" s="39"/>
       <c r="I144" s="39"/>
@@ -4569,21 +4567,21 @@
     </row>
     <row r="145" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A145" s="44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B145" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="C145" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="D145" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="C145" s="41" t="s">
+      <c r="E145" s="41" t="s">
         <v>355</v>
       </c>
-      <c r="D145" s="41" t="s">
-        <v>356</v>
-      </c>
-      <c r="E145" s="41" t="s">
-        <v>357</v>
-      </c>
-      <c r="F145" s="50"/>
+      <c r="F145" s="54"/>
       <c r="G145" s="39"/>
       <c r="H145" s="39"/>
       <c r="I145" s="39"/>
@@ -4591,21 +4589,21 @@
     </row>
     <row r="146" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A146" s="44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B146" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="C146" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="D146" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="C146" s="41" t="s">
+      <c r="E146" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="D146" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="E146" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="F146" s="50"/>
+      <c r="F146" s="54"/>
       <c r="G146" s="39"/>
       <c r="H146" s="39"/>
       <c r="I146" s="39"/>
@@ -4613,21 +4611,21 @@
     </row>
     <row r="147" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A147" s="40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B147" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="C147" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="D147" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="C147" s="41" t="s">
+      <c r="E147" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="D147" s="41" t="s">
-        <v>364</v>
-      </c>
-      <c r="E147" s="41" t="s">
-        <v>365</v>
-      </c>
-      <c r="F147" s="50"/>
+      <c r="F147" s="54"/>
       <c r="G147" s="39"/>
       <c r="H147" s="39"/>
       <c r="I147" s="39"/>
@@ -4646,10 +4644,10 @@
       <c r="J148" s="39"/>
     </row>
     <row r="150" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A150" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="B150" s="63"/>
+      <c r="A150" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B150" s="45"/>
       <c r="C150" s="33"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
@@ -4658,32 +4656,32 @@
       <c r="H150" s="1"/>
     </row>
     <row r="151" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A151" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="B151" s="63"/>
+      <c r="A151" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B151" s="45"/>
       <c r="C151" s="7"/>
       <c r="D151" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E151" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F151" s="56"/>
+      <c r="G151" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E151" s="71" t="s">
+      <c r="H151" s="10"/>
+    </row>
+    <row r="152" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A152" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="F151" s="72"/>
-      <c r="G151" s="9" t="s">
+      <c r="B152" s="45"/>
+      <c r="C152" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H151" s="10"/>
-    </row>
-    <row r="152" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="B152" s="63"/>
-      <c r="C152" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="D152" s="64"/>
+      <c r="D152" s="46"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -4691,6 +4689,172 @@
     </row>
   </sheetData>
   <mergeCells count="190">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="E129:E131"/>
+    <mergeCell ref="G129:G131"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="G119:G121"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="G124:G126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="J124:J126"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="I72:J73"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G54:H57"/>
+    <mergeCell ref="I54:J58"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="I60:J61"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="I62:J70"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="I74:J82"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="J119:J121"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="I86:J94"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="A83:J83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="I84:J85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="I41:J42"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="I43:J51"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B111:C113"/>
+    <mergeCell ref="D111:E113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="F111:G113"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="G114:G116"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:D39"/>
+    <mergeCell ref="H111:J112"/>
+    <mergeCell ref="I113:J113"/>
     <mergeCell ref="A152:B152"/>
     <mergeCell ref="C152:D152"/>
     <mergeCell ref="G35:H38"/>
@@ -4715,172 +4879,6 @@
     <mergeCell ref="C54:D58"/>
     <mergeCell ref="E54:F58"/>
     <mergeCell ref="J114:J116"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B111:C113"/>
-    <mergeCell ref="D111:E113"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="F111:G113"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="G114:G116"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:D39"/>
-    <mergeCell ref="H111:J112"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="I41:J42"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="I43:J51"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="A83:J83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="I84:J85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="J119:J121"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="I86:J94"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="J122:J123"/>
-    <mergeCell ref="J124:J126"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="I72:J73"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G54:H57"/>
-    <mergeCell ref="I54:J58"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="I60:J61"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="I62:J70"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="I74:J82"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="E129:E131"/>
-    <mergeCell ref="G129:G131"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="E119:E121"/>
-    <mergeCell ref="G119:G121"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="E124:E126"/>
-    <mergeCell ref="G124:G126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.78125" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Shablon/TDS2014B.xlsx
+++ b/Shablon/TDS2014B.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="367">
   <si>
     <t>Канал 1</t>
   </si>
@@ -316,9 +316,6 @@
   </si>
   <si>
     <t>Поверку провёл:</t>
-  </si>
-  <si>
-    <t>Протокол № 10/13-11-2023/</t>
   </si>
   <si>
     <t>dcv1+_1</t>
@@ -1477,7 +1474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1565,7 +1562,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1593,89 +1589,89 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1986,8 +1982,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2001,74 +1997,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -2082,20 +2078,19 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="A7" s="71" t="str">
+        <f>"Протокол поверки № 10/"&amp;C152&amp;"/"&amp;D10</f>
+        <v>Протокол поверки № 10/_date/_numb</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
@@ -2110,17 +2105,17 @@
       <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="27" t="s">
         <v>86</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="31"/>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="28"/>
@@ -2128,12 +2123,12 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="37" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="36" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="28"/>
@@ -2144,11 +2139,11 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -2158,11 +2153,11 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="26"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -2172,12 +2167,12 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="37" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="36" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="28"/>
@@ -2188,11 +2183,11 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="26" t="s">
         <v>92</v>
       </c>
@@ -2204,11 +2199,11 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="27" t="s">
         <v>94</v>
       </c>
@@ -2246,113 +2241,113 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="58" t="s">
+      <c r="F18" s="49"/>
+      <c r="G18" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="58"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72" t="s">
+      <c r="F20" s="45"/>
+      <c r="G20" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="72"/>
+      <c r="H20" s="46"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="71" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="71"/>
-      <c r="G21" s="72" t="s">
+      <c r="F21" s="45"/>
+      <c r="G21" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="72"/>
+      <c r="H21" s="46"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72" t="s">
+      <c r="F22" s="45"/>
+      <c r="G22" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="72"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="72"/>
+      <c r="H23" s="46"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="72" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="72"/>
+      <c r="H24" s="46"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2368,7 +2363,7 @@
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -2392,7 +2387,7 @@
     </row>
     <row r="28" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2416,7 +2411,7 @@
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2440,7 +2435,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2479,94 +2474,94 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47" t="s">
+      <c r="D35" s="49"/>
+      <c r="E35" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47" t="s">
+      <c r="F35" s="49"/>
+      <c r="G35" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47" t="s">
+      <c r="H35" s="49"/>
+      <c r="I35" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="J35" s="47"/>
+      <c r="J35" s="49"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="58"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="58"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="58"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="58"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
       <c r="G39" s="16" t="s">
         <v>2</v>
       </c>
       <c r="H39" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
     </row>
     <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
@@ -2575,24 +2570,24 @@
       <c r="B41" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57" t="s">
+      <c r="F41" s="51"/>
+      <c r="G41" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="57"/>
-      <c r="G41" s="11" t="s">
+      <c r="H41" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H41" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I41" s="54">
+      <c r="I41" s="48">
         <v>4</v>
       </c>
-      <c r="J41" s="54"/>
+      <c r="J41" s="48"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
@@ -2601,22 +2596,22 @@
       <c r="B42" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57" t="s">
+      <c r="F42" s="51"/>
+      <c r="G42" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F42" s="57"/>
-      <c r="G42" s="11" t="s">
+      <c r="H42" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
@@ -2625,24 +2620,24 @@
       <c r="B43" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57" t="s">
+      <c r="F43" s="51"/>
+      <c r="G43" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="57"/>
-      <c r="G43" s="11" t="s">
+      <c r="H43" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H43" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I43" s="65" t="s">
+      <c r="I43" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="J43" s="65"/>
+      <c r="J43" s="52"/>
     </row>
     <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
@@ -2651,22 +2646,22 @@
       <c r="B44" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57" t="s">
+      <c r="F44" s="51"/>
+      <c r="G44" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F44" s="57"/>
-      <c r="G44" s="11" t="s">
+      <c r="H44" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H44" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
@@ -2675,22 +2670,22 @@
       <c r="B45" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57" t="s">
+      <c r="F45" s="51"/>
+      <c r="G45" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F45" s="57"/>
-      <c r="G45" s="11" t="s">
+      <c r="H45" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H45" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
     </row>
     <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
@@ -2699,22 +2694,22 @@
       <c r="B46" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57" t="s">
+      <c r="F46" s="51"/>
+      <c r="G46" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="57"/>
-      <c r="G46" s="11" t="s">
+      <c r="H46" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
@@ -2723,22 +2718,22 @@
       <c r="B47" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57" t="s">
+      <c r="F47" s="51"/>
+      <c r="G47" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F47" s="57"/>
-      <c r="G47" s="11" t="s">
+      <c r="H47" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
     </row>
     <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
@@ -2747,22 +2742,22 @@
       <c r="B48" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57" t="s">
+      <c r="F48" s="51"/>
+      <c r="G48" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F48" s="57"/>
-      <c r="G48" s="11" t="s">
+      <c r="H48" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
@@ -2771,22 +2766,22 @@
       <c r="B49" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57" t="s">
+      <c r="F49" s="51"/>
+      <c r="G49" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F49" s="57"/>
-      <c r="G49" s="11" t="s">
+      <c r="H49" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="H49" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
     </row>
     <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
@@ -2795,22 +2790,22 @@
       <c r="B50" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="57" t="s">
+      <c r="C50" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57" t="s">
+      <c r="F50" s="51"/>
+      <c r="G50" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F50" s="57"/>
-      <c r="G50" s="11" t="s">
+      <c r="H50" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="H50" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
@@ -2819,22 +2814,22 @@
       <c r="B51" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="57" t="s">
+      <c r="C51" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57" t="s">
+      <c r="F51" s="51"/>
+      <c r="G51" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F51" s="57"/>
-      <c r="G51" s="11" t="s">
+      <c r="H51" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
@@ -2861,94 +2856,94 @@
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="58" t="s">
+      <c r="A54" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="47" t="s">
+      <c r="C54" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47" t="s">
+      <c r="D54" s="49"/>
+      <c r="E54" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47" t="s">
+      <c r="F54" s="49"/>
+      <c r="G54" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47" t="s">
+      <c r="H54" s="49"/>
+      <c r="I54" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="J54" s="47"/>
+      <c r="J54" s="49"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="58"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="58"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="58"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
+      <c r="A57" s="50"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="58"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
       <c r="G58" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H58" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="47"/>
-      <c r="J58" s="47"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="63" t="s">
+      <c r="A59" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
     </row>
     <row r="60" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
@@ -2957,24 +2952,24 @@
       <c r="B60" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="57" t="s">
+      <c r="C60" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57" t="s">
+      <c r="F60" s="51"/>
+      <c r="G60" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F60" s="57"/>
-      <c r="G60" s="11" t="s">
+      <c r="H60" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H60" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="I60" s="54">
+      <c r="I60" s="48">
         <v>4</v>
       </c>
-      <c r="J60" s="54"/>
+      <c r="J60" s="48"/>
     </row>
     <row r="61" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
@@ -2983,22 +2978,22 @@
       <c r="B61" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="57" t="s">
+      <c r="C61" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57" t="s">
+      <c r="F61" s="51"/>
+      <c r="G61" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F61" s="57"/>
-      <c r="G61" s="11" t="s">
+      <c r="H61" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="H61" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
     </row>
     <row r="62" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
@@ -3007,24 +3002,24 @@
       <c r="B62" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="57" t="s">
+      <c r="C62" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57" t="s">
+      <c r="F62" s="51"/>
+      <c r="G62" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F62" s="57"/>
-      <c r="G62" s="11" t="s">
+      <c r="H62" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="H62" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="I62" s="65" t="s">
+      <c r="I62" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="J62" s="65"/>
+      <c r="J62" s="52"/>
     </row>
     <row r="63" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
@@ -3033,22 +3028,22 @@
       <c r="B63" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="57" t="s">
+      <c r="C63" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57" t="s">
+      <c r="F63" s="51"/>
+      <c r="G63" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F63" s="57"/>
-      <c r="G63" s="11" t="s">
+      <c r="H63" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="H63" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
     </row>
     <row r="64" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
@@ -3057,22 +3052,22 @@
       <c r="B64" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="57" t="s">
+      <c r="C64" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57" t="s">
+      <c r="F64" s="51"/>
+      <c r="G64" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F64" s="57"/>
-      <c r="G64" s="11" t="s">
+      <c r="H64" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="H64" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="I64" s="65"/>
-      <c r="J64" s="65"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
     </row>
     <row r="65" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
@@ -3081,22 +3076,22 @@
       <c r="B65" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="57" t="s">
+      <c r="C65" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57" t="s">
+      <c r="F65" s="51"/>
+      <c r="G65" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F65" s="57"/>
-      <c r="G65" s="11" t="s">
+      <c r="H65" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="I65" s="65"/>
-      <c r="J65" s="65"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
     </row>
     <row r="66" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
@@ -3105,22 +3100,22 @@
       <c r="B66" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="57" t="s">
+      <c r="C66" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57" t="s">
+      <c r="F66" s="51"/>
+      <c r="G66" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F66" s="57"/>
-      <c r="G66" s="11" t="s">
+      <c r="H66" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="I66" s="65"/>
-      <c r="J66" s="65"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
     </row>
     <row r="67" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
@@ -3129,22 +3124,22 @@
       <c r="B67" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="57" t="s">
+      <c r="C67" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57" t="s">
+      <c r="F67" s="51"/>
+      <c r="G67" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F67" s="57"/>
-      <c r="G67" s="11" t="s">
+      <c r="H67" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="H67" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="I67" s="65"/>
-      <c r="J67" s="65"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
     </row>
     <row r="68" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
@@ -3153,22 +3148,22 @@
       <c r="B68" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="57" t="s">
+      <c r="C68" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57" t="s">
+      <c r="F68" s="51"/>
+      <c r="G68" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F68" s="57"/>
-      <c r="G68" s="11" t="s">
+      <c r="H68" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H68" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I68" s="65"/>
-      <c r="J68" s="65"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
     </row>
     <row r="69" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
@@ -3177,22 +3172,22 @@
       <c r="B69" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="57" t="s">
+      <c r="C69" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D69" s="57"/>
-      <c r="E69" s="57" t="s">
+      <c r="F69" s="51"/>
+      <c r="G69" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="F69" s="57"/>
-      <c r="G69" s="11" t="s">
+      <c r="H69" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H69" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="I69" s="65"/>
-      <c r="J69" s="65"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
     </row>
     <row r="70" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
@@ -3201,36 +3196,36 @@
       <c r="B70" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C70" s="57" t="s">
+      <c r="C70" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57" t="s">
+      <c r="F70" s="51"/>
+      <c r="G70" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="F70" s="57"/>
-      <c r="G70" s="11" t="s">
+      <c r="H70" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="H70" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="I70" s="65"/>
-      <c r="J70" s="65"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="52"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="66" t="s">
+      <c r="A71" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="67"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67"/>
-      <c r="I71" s="67"/>
-      <c r="J71" s="67"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
     </row>
     <row r="72" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
@@ -3239,24 +3234,24 @@
       <c r="B72" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="57" t="s">
+      <c r="C72" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="D72" s="57"/>
-      <c r="E72" s="57" t="s">
+      <c r="F72" s="51"/>
+      <c r="G72" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F72" s="57"/>
-      <c r="G72" s="11" t="s">
+      <c r="H72" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H72" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="I72" s="54">
+      <c r="I72" s="48">
         <v>4</v>
       </c>
-      <c r="J72" s="54"/>
+      <c r="J72" s="48"/>
     </row>
     <row r="73" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
@@ -3265,22 +3260,22 @@
       <c r="B73" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="57" t="s">
+      <c r="C73" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="D73" s="57"/>
-      <c r="E73" s="57" t="s">
+      <c r="F73" s="51"/>
+      <c r="G73" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="F73" s="57"/>
-      <c r="G73" s="11" t="s">
+      <c r="H73" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H73" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
     </row>
     <row r="74" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
@@ -3289,24 +3284,24 @@
       <c r="B74" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="57" t="s">
+      <c r="C74" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="D74" s="57"/>
-      <c r="E74" s="57" t="s">
+      <c r="F74" s="51"/>
+      <c r="G74" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="F74" s="57"/>
-      <c r="G74" s="11" t="s">
+      <c r="H74" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="H74" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="I74" s="65" t="s">
+      <c r="I74" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="J74" s="65"/>
+      <c r="J74" s="52"/>
     </row>
     <row r="75" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
@@ -3315,22 +3310,22 @@
       <c r="B75" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="57" t="s">
+      <c r="C75" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" s="51"/>
+      <c r="E75" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="D75" s="57"/>
-      <c r="E75" s="57" t="s">
+      <c r="F75" s="51"/>
+      <c r="G75" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F75" s="57"/>
-      <c r="G75" s="11" t="s">
+      <c r="H75" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="H75" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="I75" s="65"/>
-      <c r="J75" s="65"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="52"/>
     </row>
     <row r="76" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
@@ -3339,22 +3334,22 @@
       <c r="B76" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C76" s="57" t="s">
+      <c r="C76" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="D76" s="57"/>
-      <c r="E76" s="57" t="s">
+      <c r="F76" s="51"/>
+      <c r="G76" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="F76" s="57"/>
-      <c r="G76" s="11" t="s">
+      <c r="H76" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H76" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="I76" s="65"/>
-      <c r="J76" s="65"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="52"/>
     </row>
     <row r="77" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
@@ -3363,22 +3358,22 @@
       <c r="B77" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="57" t="s">
+      <c r="C77" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="D77" s="57"/>
-      <c r="E77" s="57" t="s">
+      <c r="F77" s="51"/>
+      <c r="G77" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="F77" s="57"/>
-      <c r="G77" s="11" t="s">
+      <c r="H77" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H77" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="I77" s="65"/>
-      <c r="J77" s="65"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="52"/>
     </row>
     <row r="78" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
@@ -3387,22 +3382,22 @@
       <c r="B78" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C78" s="57" t="s">
+      <c r="C78" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="D78" s="57"/>
-      <c r="E78" s="57" t="s">
+      <c r="F78" s="51"/>
+      <c r="G78" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F78" s="57"/>
-      <c r="G78" s="11" t="s">
+      <c r="H78" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="H78" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="I78" s="65"/>
-      <c r="J78" s="65"/>
+      <c r="I78" s="52"/>
+      <c r="J78" s="52"/>
     </row>
     <row r="79" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
@@ -3411,22 +3406,22 @@
       <c r="B79" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="57" t="s">
+      <c r="C79" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="D79" s="51"/>
+      <c r="E79" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57" t="s">
+      <c r="F79" s="51"/>
+      <c r="G79" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F79" s="57"/>
-      <c r="G79" s="11" t="s">
+      <c r="H79" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="H79" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="I79" s="65"/>
-      <c r="J79" s="65"/>
+      <c r="I79" s="52"/>
+      <c r="J79" s="52"/>
     </row>
     <row r="80" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
@@ -3435,22 +3430,22 @@
       <c r="B80" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="57" t="s">
+      <c r="C80" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="D80" s="51"/>
+      <c r="E80" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="D80" s="57"/>
-      <c r="E80" s="57" t="s">
+      <c r="F80" s="51"/>
+      <c r="G80" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F80" s="57"/>
-      <c r="G80" s="11" t="s">
+      <c r="H80" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="H80" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I80" s="65"/>
-      <c r="J80" s="65"/>
+      <c r="I80" s="52"/>
+      <c r="J80" s="52"/>
     </row>
     <row r="81" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
@@ -3459,22 +3454,22 @@
       <c r="B81" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C81" s="57" t="s">
+      <c r="C81" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="D81" s="57"/>
-      <c r="E81" s="57" t="s">
+      <c r="F81" s="51"/>
+      <c r="G81" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="F81" s="57"/>
-      <c r="G81" s="11" t="s">
+      <c r="H81" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="H81" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="I81" s="65"/>
-      <c r="J81" s="65"/>
+      <c r="I81" s="52"/>
+      <c r="J81" s="52"/>
     </row>
     <row r="82" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
@@ -3483,36 +3478,36 @@
       <c r="B82" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C82" s="57" t="s">
+      <c r="C82" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="D82" s="51"/>
+      <c r="E82" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="D82" s="57"/>
-      <c r="E82" s="57" t="s">
+      <c r="F82" s="51"/>
+      <c r="G82" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="F82" s="57"/>
-      <c r="G82" s="11" t="s">
+      <c r="H82" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="H82" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="I82" s="65"/>
-      <c r="J82" s="65"/>
+      <c r="I82" s="52"/>
+      <c r="J82" s="52"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="66" t="s">
+      <c r="A83" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B83" s="67"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="67"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="54"/>
     </row>
     <row r="84" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
@@ -3521,24 +3516,24 @@
       <c r="B84" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C84" s="57" t="s">
+      <c r="C84" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="D84" s="57"/>
-      <c r="E84" s="57" t="s">
+      <c r="F84" s="51"/>
+      <c r="G84" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F84" s="57"/>
-      <c r="G84" s="11" t="s">
+      <c r="H84" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H84" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="I84" s="54">
+      <c r="I84" s="48">
         <v>4</v>
       </c>
-      <c r="J84" s="54"/>
+      <c r="J84" s="48"/>
     </row>
     <row r="85" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
@@ -3547,22 +3542,22 @@
       <c r="B85" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="57" t="s">
+      <c r="C85" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="D85" s="51"/>
+      <c r="E85" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="D85" s="57"/>
-      <c r="E85" s="57" t="s">
+      <c r="F85" s="51"/>
+      <c r="G85" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="F85" s="57"/>
-      <c r="G85" s="11" t="s">
+      <c r="H85" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="H85" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="I85" s="54"/>
-      <c r="J85" s="54"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="48"/>
     </row>
     <row r="86" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
@@ -3571,24 +3566,24 @@
       <c r="B86" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C86" s="57" t="s">
+      <c r="C86" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="D86" s="51"/>
+      <c r="E86" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="D86" s="57"/>
-      <c r="E86" s="57" t="s">
+      <c r="F86" s="51"/>
+      <c r="G86" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="F86" s="57"/>
-      <c r="G86" s="11" t="s">
+      <c r="H86" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="H86" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="I86" s="65" t="s">
+      <c r="I86" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="J86" s="65"/>
+      <c r="J86" s="52"/>
     </row>
     <row r="87" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
@@ -3597,22 +3592,22 @@
       <c r="B87" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C87" s="57" t="s">
+      <c r="C87" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57" t="s">
+      <c r="F87" s="51"/>
+      <c r="G87" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="F87" s="57"/>
-      <c r="G87" s="11" t="s">
+      <c r="H87" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="H87" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="I87" s="65"/>
-      <c r="J87" s="65"/>
+      <c r="I87" s="52"/>
+      <c r="J87" s="52"/>
     </row>
     <row r="88" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
@@ -3621,22 +3616,22 @@
       <c r="B88" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C88" s="57" t="s">
+      <c r="C88" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="D88" s="51"/>
+      <c r="E88" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="D88" s="57"/>
-      <c r="E88" s="57" t="s">
+      <c r="F88" s="51"/>
+      <c r="G88" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F88" s="57"/>
-      <c r="G88" s="11" t="s">
+      <c r="H88" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="H88" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="I88" s="65"/>
-      <c r="J88" s="65"/>
+      <c r="I88" s="52"/>
+      <c r="J88" s="52"/>
     </row>
     <row r="89" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
@@ -3645,22 +3640,22 @@
       <c r="B89" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C89" s="57" t="s">
+      <c r="C89" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="D89" s="57"/>
-      <c r="E89" s="57" t="s">
+      <c r="F89" s="51"/>
+      <c r="G89" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F89" s="57"/>
-      <c r="G89" s="11" t="s">
+      <c r="H89" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="H89" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="I89" s="65"/>
-      <c r="J89" s="65"/>
+      <c r="I89" s="52"/>
+      <c r="J89" s="52"/>
     </row>
     <row r="90" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
@@ -3669,22 +3664,22 @@
       <c r="B90" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C90" s="57" t="s">
+      <c r="C90" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="D90" s="51"/>
+      <c r="E90" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="D90" s="57"/>
-      <c r="E90" s="57" t="s">
+      <c r="F90" s="51"/>
+      <c r="G90" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="F90" s="57"/>
-      <c r="G90" s="11" t="s">
+      <c r="H90" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="H90" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="I90" s="65"/>
-      <c r="J90" s="65"/>
+      <c r="I90" s="52"/>
+      <c r="J90" s="52"/>
     </row>
     <row r="91" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
@@ -3693,22 +3688,22 @@
       <c r="B91" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C91" s="57" t="s">
+      <c r="C91" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="D91" s="57"/>
-      <c r="E91" s="57" t="s">
+      <c r="F91" s="51"/>
+      <c r="G91" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F91" s="57"/>
-      <c r="G91" s="11" t="s">
+      <c r="H91" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="H91" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="I91" s="65"/>
-      <c r="J91" s="65"/>
+      <c r="I91" s="52"/>
+      <c r="J91" s="52"/>
     </row>
     <row r="92" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
@@ -3717,22 +3712,22 @@
       <c r="B92" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C92" s="57" t="s">
+      <c r="C92" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="D92" s="51"/>
+      <c r="E92" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="D92" s="57"/>
-      <c r="E92" s="57" t="s">
+      <c r="F92" s="51"/>
+      <c r="G92" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="F92" s="57"/>
-      <c r="G92" s="11" t="s">
+      <c r="H92" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H92" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="I92" s="65"/>
-      <c r="J92" s="65"/>
+      <c r="I92" s="52"/>
+      <c r="J92" s="52"/>
     </row>
     <row r="93" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
@@ -3741,22 +3736,22 @@
       <c r="B93" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C93" s="57" t="s">
+      <c r="C93" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="D93" s="51"/>
+      <c r="E93" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D93" s="57"/>
-      <c r="E93" s="57" t="s">
+      <c r="F93" s="51"/>
+      <c r="G93" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="F93" s="57"/>
-      <c r="G93" s="11" t="s">
+      <c r="H93" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="H93" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="I93" s="65"/>
-      <c r="J93" s="65"/>
+      <c r="I93" s="52"/>
+      <c r="J93" s="52"/>
     </row>
     <row r="94" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
@@ -3765,22 +3760,22 @@
       <c r="B94" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C94" s="57" t="s">
+      <c r="C94" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="D94" s="51"/>
+      <c r="E94" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="D94" s="57"/>
-      <c r="E94" s="57" t="s">
+      <c r="F94" s="51"/>
+      <c r="G94" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="F94" s="57"/>
-      <c r="G94" s="11" t="s">
+      <c r="H94" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="H94" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="I94" s="65"/>
-      <c r="J94" s="65"/>
+      <c r="I94" s="52"/>
+      <c r="J94" s="52"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
@@ -3788,137 +3783,137 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="58" t="s">
+      <c r="A111" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B111" s="58" t="s">
+      <c r="B111" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C111" s="58"/>
-      <c r="D111" s="47" t="s">
+      <c r="C111" s="50"/>
+      <c r="D111" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="E111" s="47"/>
-      <c r="F111" s="47" t="s">
+      <c r="E111" s="49"/>
+      <c r="F111" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="G111" s="47"/>
-      <c r="H111" s="58" t="s">
+      <c r="G111" s="49"/>
+      <c r="H111" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="I111" s="58"/>
-      <c r="J111" s="58"/>
+      <c r="I111" s="50"/>
+      <c r="J111" s="50"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="58"/>
-      <c r="B112" s="58"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="47"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="47"/>
-      <c r="G112" s="47"/>
-      <c r="H112" s="58"/>
-      <c r="I112" s="58"/>
-      <c r="J112" s="58"/>
+      <c r="A112" s="50"/>
+      <c r="B112" s="50"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="49"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="49"/>
+      <c r="G112" s="49"/>
+      <c r="H112" s="50"/>
+      <c r="I112" s="50"/>
+      <c r="J112" s="50"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="58"/>
-      <c r="B113" s="58"/>
-      <c r="C113" s="58"/>
-      <c r="D113" s="47"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="47"/>
-      <c r="G113" s="47"/>
+      <c r="A113" s="50"/>
+      <c r="B113" s="50"/>
+      <c r="C113" s="50"/>
+      <c r="D113" s="49"/>
+      <c r="E113" s="49"/>
+      <c r="F113" s="49"/>
+      <c r="G113" s="49"/>
       <c r="H113" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I113" s="61" t="s">
+      <c r="I113" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="J113" s="62"/>
+      <c r="J113" s="60"/>
     </row>
     <row r="114" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="54">
+      <c r="A114" s="48">
         <v>1</v>
       </c>
       <c r="B114" s="14">
         <v>5</v>
       </c>
-      <c r="C114" s="54" t="s">
+      <c r="C114" s="48" t="s">
         <v>68</v>
       </c>
       <c r="D114" s="16">
         <v>2.5</v>
       </c>
-      <c r="E114" s="54" t="s">
+      <c r="E114" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F114" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="G114" s="54" t="s">
+      <c r="F114" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="G114" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="H114" s="42" t="s">
-        <v>296</v>
+      <c r="H114" s="41" t="s">
+        <v>295</v>
       </c>
       <c r="I114" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="J114" s="54" t="s">
+      <c r="J114" s="48" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="54"/>
+      <c r="A115" s="48"/>
       <c r="B115" s="14">
         <v>100</v>
       </c>
-      <c r="C115" s="54"/>
+      <c r="C115" s="48"/>
       <c r="D115" s="16">
         <v>50</v>
       </c>
-      <c r="E115" s="54"/>
-      <c r="F115" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="G115" s="54"/>
-      <c r="H115" s="42" t="s">
-        <v>297</v>
+      <c r="E115" s="48"/>
+      <c r="F115" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="G115" s="48"/>
+      <c r="H115" s="41" t="s">
+        <v>296</v>
       </c>
       <c r="I115" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J115" s="54"/>
+      <c r="J115" s="48"/>
     </row>
     <row r="116" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="54"/>
+      <c r="A116" s="48"/>
       <c r="B116" s="14">
         <v>500</v>
       </c>
-      <c r="C116" s="54"/>
+      <c r="C116" s="48"/>
       <c r="D116" s="16">
         <v>250</v>
       </c>
-      <c r="E116" s="54"/>
-      <c r="F116" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="G116" s="54"/>
-      <c r="H116" s="42" t="s">
-        <v>298</v>
+      <c r="E116" s="48"/>
+      <c r="F116" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="G116" s="48"/>
+      <c r="H116" s="41" t="s">
+        <v>297</v>
       </c>
       <c r="I116" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J116" s="54"/>
+      <c r="J116" s="48"/>
     </row>
     <row r="117" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="54"/>
+      <c r="A117" s="48"/>
       <c r="B117" s="14">
         <v>1</v>
       </c>
-      <c r="C117" s="54" t="s">
+      <c r="C117" s="48" t="s">
         <v>74</v>
       </c>
       <c r="D117" s="16">
@@ -3927,128 +3922,128 @@
       <c r="E117" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F117" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="G117" s="54" t="s">
+      <c r="F117" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="G117" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="H117" s="42" t="s">
-        <v>299</v>
+      <c r="H117" s="41" t="s">
+        <v>298</v>
       </c>
       <c r="I117" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="J117" s="54" t="s">
+      <c r="J117" s="48" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="54"/>
+      <c r="A118" s="48"/>
       <c r="B118" s="14">
         <v>5</v>
       </c>
-      <c r="C118" s="54"/>
+      <c r="C118" s="48"/>
       <c r="D118" s="16">
         <v>2.5</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F118" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="G118" s="54"/>
-      <c r="H118" s="42" t="s">
-        <v>300</v>
+      <c r="F118" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="G118" s="48"/>
+      <c r="H118" s="41" t="s">
+        <v>299</v>
       </c>
       <c r="I118" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J118" s="54"/>
+      <c r="J118" s="48"/>
     </row>
     <row r="119" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="54">
+      <c r="A119" s="48">
         <v>2</v>
       </c>
       <c r="B119" s="14">
         <v>5</v>
       </c>
-      <c r="C119" s="54" t="s">
+      <c r="C119" s="48" t="s">
         <v>68</v>
       </c>
       <c r="D119" s="16">
         <v>2.5</v>
       </c>
-      <c r="E119" s="54" t="s">
+      <c r="E119" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F119" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="G119" s="54" t="s">
+      <c r="F119" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="G119" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="H119" s="42" t="s">
-        <v>301</v>
+      <c r="H119" s="41" t="s">
+        <v>300</v>
       </c>
       <c r="I119" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="J119" s="54" t="s">
+      <c r="J119" s="48" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="54"/>
+      <c r="A120" s="48"/>
       <c r="B120" s="14">
         <v>100</v>
       </c>
-      <c r="C120" s="54"/>
+      <c r="C120" s="48"/>
       <c r="D120" s="16">
         <v>50</v>
       </c>
-      <c r="E120" s="54"/>
-      <c r="F120" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="G120" s="54"/>
-      <c r="H120" s="42" t="s">
-        <v>302</v>
+      <c r="E120" s="48"/>
+      <c r="F120" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="G120" s="48"/>
+      <c r="H120" s="41" t="s">
+        <v>301</v>
       </c>
       <c r="I120" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J120" s="54"/>
+      <c r="J120" s="48"/>
     </row>
     <row r="121" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="54"/>
+      <c r="A121" s="48"/>
       <c r="B121" s="14">
         <v>500</v>
       </c>
-      <c r="C121" s="54"/>
+      <c r="C121" s="48"/>
       <c r="D121" s="16">
         <v>250</v>
       </c>
-      <c r="E121" s="54"/>
-      <c r="F121" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="G121" s="54"/>
-      <c r="H121" s="42" t="s">
-        <v>303</v>
+      <c r="E121" s="48"/>
+      <c r="F121" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="G121" s="48"/>
+      <c r="H121" s="41" t="s">
+        <v>302</v>
       </c>
       <c r="I121" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J121" s="54"/>
+      <c r="J121" s="48"/>
     </row>
     <row r="122" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="54"/>
+      <c r="A122" s="48"/>
       <c r="B122" s="14">
         <v>1</v>
       </c>
-      <c r="C122" s="54" t="s">
+      <c r="C122" s="48" t="s">
         <v>74</v>
       </c>
       <c r="D122" s="16">
@@ -4057,128 +4052,128 @@
       <c r="E122" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F122" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="G122" s="54" t="s">
+      <c r="F122" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="G122" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="H122" s="42" t="s">
-        <v>304</v>
+      <c r="H122" s="41" t="s">
+        <v>303</v>
       </c>
       <c r="I122" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="J122" s="54" t="s">
+      <c r="J122" s="48" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="54"/>
+      <c r="A123" s="48"/>
       <c r="B123" s="14">
         <v>5</v>
       </c>
-      <c r="C123" s="54"/>
+      <c r="C123" s="48"/>
       <c r="D123" s="16">
         <v>2.5</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F123" s="42" t="s">
-        <v>285</v>
-      </c>
-      <c r="G123" s="54"/>
-      <c r="H123" s="42" t="s">
-        <v>305</v>
+      <c r="F123" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="G123" s="48"/>
+      <c r="H123" s="41" t="s">
+        <v>304</v>
       </c>
       <c r="I123" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J123" s="54"/>
+      <c r="J123" s="48"/>
     </row>
     <row r="124" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="54">
+      <c r="A124" s="48">
         <v>3</v>
       </c>
       <c r="B124" s="14">
         <v>5</v>
       </c>
-      <c r="C124" s="54" t="s">
+      <c r="C124" s="48" t="s">
         <v>68</v>
       </c>
       <c r="D124" s="16">
         <v>2.5</v>
       </c>
-      <c r="E124" s="54" t="s">
+      <c r="E124" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F124" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="G124" s="54" t="s">
+      <c r="F124" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G124" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="H124" s="42" t="s">
-        <v>306</v>
+      <c r="H124" s="41" t="s">
+        <v>305</v>
       </c>
       <c r="I124" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="J124" s="54" t="s">
+      <c r="J124" s="48" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="54"/>
+      <c r="A125" s="48"/>
       <c r="B125" s="14">
         <v>100</v>
       </c>
-      <c r="C125" s="54"/>
+      <c r="C125" s="48"/>
       <c r="D125" s="16">
         <v>50</v>
       </c>
-      <c r="E125" s="54"/>
-      <c r="F125" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="G125" s="54"/>
-      <c r="H125" s="42" t="s">
-        <v>307</v>
+      <c r="E125" s="48"/>
+      <c r="F125" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="G125" s="48"/>
+      <c r="H125" s="41" t="s">
+        <v>306</v>
       </c>
       <c r="I125" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J125" s="54"/>
+      <c r="J125" s="48"/>
     </row>
     <row r="126" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="54"/>
+      <c r="A126" s="48"/>
       <c r="B126" s="14">
         <v>500</v>
       </c>
-      <c r="C126" s="54"/>
+      <c r="C126" s="48"/>
       <c r="D126" s="16">
         <v>250</v>
       </c>
-      <c r="E126" s="54"/>
-      <c r="F126" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="G126" s="54"/>
-      <c r="H126" s="42" t="s">
-        <v>308</v>
+      <c r="E126" s="48"/>
+      <c r="F126" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="G126" s="48"/>
+      <c r="H126" s="41" t="s">
+        <v>307</v>
       </c>
       <c r="I126" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J126" s="54"/>
+      <c r="J126" s="48"/>
     </row>
     <row r="127" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="54"/>
+      <c r="A127" s="48"/>
       <c r="B127" s="14">
         <v>1</v>
       </c>
-      <c r="C127" s="54" t="s">
+      <c r="C127" s="48" t="s">
         <v>74</v>
       </c>
       <c r="D127" s="16">
@@ -4187,128 +4182,128 @@
       <c r="E127" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F127" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="G127" s="54" t="s">
+      <c r="F127" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="G127" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="H127" s="42" t="s">
-        <v>309</v>
+      <c r="H127" s="41" t="s">
+        <v>308</v>
       </c>
       <c r="I127" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="J127" s="54" t="s">
+      <c r="J127" s="48" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="54"/>
+      <c r="A128" s="48"/>
       <c r="B128" s="14">
         <v>5</v>
       </c>
-      <c r="C128" s="54"/>
+      <c r="C128" s="48"/>
       <c r="D128" s="16">
         <v>2.5</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F128" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="G128" s="54"/>
-      <c r="H128" s="42" t="s">
-        <v>310</v>
+      <c r="F128" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="G128" s="48"/>
+      <c r="H128" s="41" t="s">
+        <v>309</v>
       </c>
       <c r="I128" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J128" s="54"/>
+      <c r="J128" s="48"/>
     </row>
     <row r="129" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="54">
+      <c r="A129" s="48">
         <v>4</v>
       </c>
       <c r="B129" s="14">
         <v>5</v>
       </c>
-      <c r="C129" s="54" t="s">
+      <c r="C129" s="48" t="s">
         <v>68</v>
       </c>
       <c r="D129" s="16">
         <v>2.5</v>
       </c>
-      <c r="E129" s="54" t="s">
+      <c r="E129" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F129" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="G129" s="54" t="s">
+      <c r="F129" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="G129" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="H129" s="42" t="s">
-        <v>311</v>
+      <c r="H129" s="41" t="s">
+        <v>310</v>
       </c>
       <c r="I129" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="J129" s="54" t="s">
+      <c r="J129" s="48" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="54"/>
+      <c r="A130" s="48"/>
       <c r="B130" s="14">
         <v>100</v>
       </c>
-      <c r="C130" s="54"/>
+      <c r="C130" s="48"/>
       <c r="D130" s="16">
         <v>50</v>
       </c>
-      <c r="E130" s="54"/>
-      <c r="F130" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="G130" s="54"/>
-      <c r="H130" s="42" t="s">
-        <v>312</v>
+      <c r="E130" s="48"/>
+      <c r="F130" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="G130" s="48"/>
+      <c r="H130" s="41" t="s">
+        <v>311</v>
       </c>
       <c r="I130" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J130" s="54"/>
+      <c r="J130" s="48"/>
     </row>
     <row r="131" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="54"/>
+      <c r="A131" s="48"/>
       <c r="B131" s="14">
         <v>500</v>
       </c>
-      <c r="C131" s="54"/>
+      <c r="C131" s="48"/>
       <c r="D131" s="16">
         <v>250</v>
       </c>
-      <c r="E131" s="54"/>
-      <c r="F131" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="G131" s="54"/>
-      <c r="H131" s="42" t="s">
-        <v>313</v>
+      <c r="E131" s="48"/>
+      <c r="F131" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="G131" s="48"/>
+      <c r="H131" s="41" t="s">
+        <v>312</v>
       </c>
       <c r="I131" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J131" s="54"/>
+      <c r="J131" s="48"/>
     </row>
     <row r="132" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="54"/>
+      <c r="A132" s="48"/>
       <c r="B132" s="14">
         <v>1</v>
       </c>
-      <c r="C132" s="54" t="s">
+      <c r="C132" s="48" t="s">
         <v>74</v>
       </c>
       <c r="D132" s="16">
@@ -4317,45 +4312,45 @@
       <c r="E132" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F132" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="G132" s="54" t="s">
+      <c r="F132" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="G132" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="H132" s="42" t="s">
-        <v>314</v>
+      <c r="H132" s="41" t="s">
+        <v>313</v>
       </c>
       <c r="I132" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="J132" s="54" t="s">
+      <c r="J132" s="48" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="54"/>
+      <c r="A133" s="48"/>
       <c r="B133" s="14">
         <v>5</v>
       </c>
-      <c r="C133" s="54"/>
+      <c r="C133" s="48"/>
       <c r="D133" s="16">
         <v>2.5</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F133" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="G133" s="54"/>
-      <c r="H133" s="42" t="s">
-        <v>315</v>
+      <c r="F133" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G133" s="48"/>
+      <c r="H133" s="41" t="s">
+        <v>314</v>
       </c>
       <c r="I133" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J133" s="54"/>
+      <c r="J133" s="48"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
@@ -4372,282 +4367,282 @@
       <c r="J135" s="3"/>
     </row>
     <row r="136" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="49" t="s">
+      <c r="A136" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="B136" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="B136" s="51" t="s">
+      <c r="C136" s="67"/>
+      <c r="D136" s="67"/>
+      <c r="E136" s="68"/>
+      <c r="F136" s="64" t="s">
         <v>318</v>
       </c>
-      <c r="C136" s="52"/>
-      <c r="D136" s="52"/>
-      <c r="E136" s="53"/>
-      <c r="F136" s="49" t="s">
+      <c r="G136" s="38"/>
+      <c r="H136" s="38"/>
+      <c r="I136" s="38"/>
+      <c r="J136" s="38"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="65"/>
+      <c r="B137" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="G136" s="39"/>
-      <c r="H136" s="39"/>
-      <c r="I136" s="39"/>
-      <c r="J136" s="39"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="50"/>
-      <c r="B137" s="38" t="s">
+      <c r="C137" s="37" t="s">
         <v>320</v>
       </c>
-      <c r="C137" s="38" t="s">
+      <c r="D137" s="37" t="s">
         <v>321</v>
       </c>
-      <c r="D137" s="38" t="s">
+      <c r="E137" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="E137" s="38" t="s">
+      <c r="F137" s="65"/>
+      <c r="G137" s="38"/>
+      <c r="H137" s="38"/>
+      <c r="I137" s="38"/>
+      <c r="J137" s="38"/>
+    </row>
+    <row r="138" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B138" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="C138" s="40" t="s">
         <v>323</v>
       </c>
-      <c r="F137" s="50"/>
-      <c r="G137" s="39"/>
-      <c r="H137" s="39"/>
-      <c r="I137" s="39"/>
-      <c r="J137" s="39"/>
-    </row>
-    <row r="138" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B138" s="41" t="s">
-        <v>316</v>
-      </c>
-      <c r="C138" s="41" t="s">
+      <c r="D138" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="D138" s="41" t="s">
+      <c r="E138" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="E138" s="41" t="s">
+      <c r="F138" s="48" t="s">
         <v>326</v>
       </c>
-      <c r="F138" s="54" t="s">
+      <c r="G138" s="38"/>
+      <c r="H138" s="38"/>
+      <c r="I138" s="38"/>
+      <c r="J138" s="38"/>
+    </row>
+    <row r="139" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B139" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="G138" s="39"/>
-      <c r="H138" s="39"/>
-      <c r="I138" s="39"/>
-      <c r="J138" s="39"/>
-    </row>
-    <row r="139" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B139" s="41" t="s">
+      <c r="C139" s="40" t="s">
         <v>328</v>
       </c>
-      <c r="C139" s="41" t="s">
+      <c r="D139" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="D139" s="41" t="s">
+      <c r="E139" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="E139" s="41" t="s">
+      <c r="F139" s="48"/>
+      <c r="G139" s="38"/>
+      <c r="H139" s="38"/>
+      <c r="I139" s="38"/>
+      <c r="J139" s="38"/>
+    </row>
+    <row r="140" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B140" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="F139" s="54"/>
-      <c r="G139" s="39"/>
-      <c r="H139" s="39"/>
-      <c r="I139" s="39"/>
-      <c r="J139" s="39"/>
-    </row>
-    <row r="140" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B140" s="41" t="s">
+      <c r="C140" s="40" t="s">
         <v>332</v>
       </c>
-      <c r="C140" s="41" t="s">
+      <c r="D140" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="D140" s="41" t="s">
+      <c r="E140" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="E140" s="41" t="s">
+      <c r="F140" s="48"/>
+      <c r="G140" s="38"/>
+      <c r="H140" s="38"/>
+      <c r="I140" s="38"/>
+      <c r="J140" s="38"/>
+    </row>
+    <row r="141" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B141" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="F140" s="54"/>
-      <c r="G140" s="39"/>
-      <c r="H140" s="39"/>
-      <c r="I140" s="39"/>
-      <c r="J140" s="39"/>
-    </row>
-    <row r="141" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B141" s="41" t="s">
+      <c r="C141" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="C141" s="41" t="s">
+      <c r="D141" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="D141" s="41" t="s">
+      <c r="E141" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="E141" s="41" t="s">
+      <c r="F141" s="48"/>
+      <c r="G141" s="38"/>
+      <c r="H141" s="38"/>
+      <c r="I141" s="38"/>
+      <c r="J141" s="38"/>
+    </row>
+    <row r="142" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B142" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="F141" s="54"/>
-      <c r="G141" s="39"/>
-      <c r="H141" s="39"/>
-      <c r="I141" s="39"/>
-      <c r="J141" s="39"/>
-    </row>
-    <row r="142" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B142" s="41" t="s">
+      <c r="C142" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="C142" s="41" t="s">
+      <c r="D142" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="D142" s="41" t="s">
+      <c r="E142" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="E142" s="41" t="s">
+      <c r="F142" s="48"/>
+      <c r="G142" s="38"/>
+      <c r="H142" s="38"/>
+      <c r="I142" s="38"/>
+      <c r="J142" s="38"/>
+    </row>
+    <row r="143" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B143" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="F142" s="54"/>
-      <c r="G142" s="39"/>
-      <c r="H142" s="39"/>
-      <c r="I142" s="39"/>
-      <c r="J142" s="39"/>
-    </row>
-    <row r="143" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B143" s="41" t="s">
+      <c r="C143" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="C143" s="41" t="s">
+      <c r="D143" s="40" t="s">
         <v>345</v>
       </c>
-      <c r="D143" s="41" t="s">
+      <c r="E143" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="E143" s="41" t="s">
+      <c r="F143" s="48"/>
+      <c r="G143" s="38"/>
+      <c r="H143" s="38"/>
+      <c r="I143" s="38"/>
+      <c r="J143" s="38"/>
+    </row>
+    <row r="144" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B144" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="F143" s="54"/>
-      <c r="G143" s="39"/>
-      <c r="H143" s="39"/>
-      <c r="I143" s="39"/>
-      <c r="J143" s="39"/>
-    </row>
-    <row r="144" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B144" s="41" t="s">
+      <c r="C144" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="C144" s="41" t="s">
+      <c r="D144" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="D144" s="41" t="s">
+      <c r="E144" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="E144" s="41" t="s">
+      <c r="F144" s="48"/>
+      <c r="G144" s="38"/>
+      <c r="H144" s="38"/>
+      <c r="I144" s="38"/>
+      <c r="J144" s="38"/>
+    </row>
+    <row r="145" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B145" s="40" t="s">
         <v>351</v>
       </c>
-      <c r="F144" s="54"/>
-      <c r="G144" s="39"/>
-      <c r="H144" s="39"/>
-      <c r="I144" s="39"/>
-      <c r="J144" s="39"/>
-    </row>
-    <row r="145" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B145" s="41" t="s">
+      <c r="C145" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="C145" s="41" t="s">
+      <c r="D145" s="40" t="s">
         <v>353</v>
       </c>
-      <c r="D145" s="41" t="s">
+      <c r="E145" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="E145" s="41" t="s">
+      <c r="F145" s="48"/>
+      <c r="G145" s="38"/>
+      <c r="H145" s="38"/>
+      <c r="I145" s="38"/>
+      <c r="J145" s="38"/>
+    </row>
+    <row r="146" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="F145" s="54"/>
-      <c r="G145" s="39"/>
-      <c r="H145" s="39"/>
-      <c r="I145" s="39"/>
-      <c r="J145" s="39"/>
-    </row>
-    <row r="146" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B146" s="41" t="s">
+      <c r="C146" s="40" t="s">
         <v>356</v>
       </c>
-      <c r="C146" s="41" t="s">
+      <c r="D146" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="D146" s="41" t="s">
+      <c r="E146" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="E146" s="41" t="s">
+      <c r="F146" s="48"/>
+      <c r="G146" s="38"/>
+      <c r="H146" s="38"/>
+      <c r="I146" s="38"/>
+      <c r="J146" s="38"/>
+    </row>
+    <row r="147" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B147" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="F146" s="54"/>
-      <c r="G146" s="39"/>
-      <c r="H146" s="39"/>
-      <c r="I146" s="39"/>
-      <c r="J146" s="39"/>
-    </row>
-    <row r="147" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B147" s="41" t="s">
+      <c r="C147" s="40" t="s">
         <v>360</v>
       </c>
-      <c r="C147" s="41" t="s">
+      <c r="D147" s="40" t="s">
         <v>361</v>
       </c>
-      <c r="D147" s="41" t="s">
+      <c r="E147" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="E147" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="F147" s="54"/>
-      <c r="G147" s="39"/>
-      <c r="H147" s="39"/>
-      <c r="I147" s="39"/>
-      <c r="J147" s="39"/>
+      <c r="F147" s="48"/>
+      <c r="G147" s="38"/>
+      <c r="H147" s="38"/>
+      <c r="I147" s="38"/>
+      <c r="J147" s="38"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" s="39"/>
-      <c r="B148" s="39"/>
-      <c r="C148" s="39"/>
-      <c r="D148" s="39"/>
-      <c r="E148" s="39"/>
-      <c r="F148" s="39"/>
-      <c r="G148" s="39"/>
-      <c r="H148" s="39"/>
-      <c r="I148" s="39"/>
-      <c r="J148" s="39"/>
+      <c r="A148" s="38"/>
+      <c r="B148" s="38"/>
+      <c r="C148" s="38"/>
+      <c r="D148" s="38"/>
+      <c r="E148" s="38"/>
+      <c r="F148" s="38"/>
+      <c r="G148" s="38"/>
+      <c r="H148" s="38"/>
+      <c r="I148" s="38"/>
+      <c r="J148" s="38"/>
     </row>
     <row r="150" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A150" s="45" t="s">
+      <c r="A150" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="B150" s="45"/>
+      <c r="B150" s="61"/>
       <c r="C150" s="33"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
@@ -4656,32 +4651,32 @@
       <c r="H150" s="1"/>
     </row>
     <row r="151" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A151" s="45" t="s">
+      <c r="A151" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="B151" s="45"/>
+      <c r="B151" s="61"/>
       <c r="C151" s="7"/>
       <c r="D151" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E151" s="55" t="s">
+      <c r="E151" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="F151" s="56"/>
+      <c r="F151" s="70"/>
       <c r="G151" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H151" s="10"/>
     </row>
     <row r="152" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="45" t="s">
+      <c r="A152" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B152" s="45"/>
-      <c r="C152" s="46" t="s">
+      <c r="B152" s="61"/>
+      <c r="C152" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D152" s="46"/>
+      <c r="D152" s="62"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -4689,45 +4684,133 @@
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="E129:E131"/>
-    <mergeCell ref="G129:G131"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="E119:E121"/>
-    <mergeCell ref="G119:G121"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="E124:E126"/>
-    <mergeCell ref="G124:G126"/>
-    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="G35:H38"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="F138:F147"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="J129:J131"/>
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="E35:F39"/>
+    <mergeCell ref="I35:J39"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:D58"/>
+    <mergeCell ref="E54:F58"/>
+    <mergeCell ref="J114:J116"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B111:C113"/>
+    <mergeCell ref="D111:E113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="F111:G113"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="G114:G116"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:D39"/>
+    <mergeCell ref="H111:J112"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="I41:J42"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="I43:J51"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="A83:J83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="I84:J85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="J119:J121"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="I86:J94"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="C94:D94"/>
     <mergeCell ref="J122:J123"/>
     <mergeCell ref="J124:J126"/>
     <mergeCell ref="J127:J128"/>
@@ -4752,133 +4835,45 @@
     <mergeCell ref="I74:J82"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="E75:F75"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="J119:J121"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="I86:J94"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="A83:J83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="I84:J85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="I41:J42"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="I43:J51"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B111:C113"/>
-    <mergeCell ref="D111:E113"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="F111:G113"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="G114:G116"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:D39"/>
-    <mergeCell ref="H111:J112"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="G35:H38"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="F138:F147"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="J129:J131"/>
-    <mergeCell ref="J132:J133"/>
-    <mergeCell ref="E35:F39"/>
-    <mergeCell ref="I35:J39"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:D58"/>
-    <mergeCell ref="E54:F58"/>
-    <mergeCell ref="J114:J116"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="E129:E131"/>
+    <mergeCell ref="G129:G131"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="G119:G121"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="G124:G126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.78125" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Shablon/TDS2014B.xlsx
+++ b/Shablon/TDS2014B.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITL\MEASControl\Shablon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_doc\ITL\MEASControl\Shablon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="368">
   <si>
     <t>Канал 1</t>
   </si>
@@ -1214,6 +1214,9 @@
       </rPr>
       <t>соответствует</t>
     </r>
+  </si>
+  <si>
+    <t>32618-06</t>
   </si>
 </sst>
 </file>
@@ -1589,86 +1592,86 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1983,7 +1986,7 @@
   <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1997,74 +2000,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -2105,11 +2108,11 @@
       <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="27" t="s">
         <v>86</v>
       </c>
@@ -2123,11 +2126,11 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="36" t="s">
         <v>8</v>
       </c>
@@ -2139,11 +2142,11 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -2153,12 +2156,14 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="26" t="s">
+        <v>367</v>
+      </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
@@ -2167,11 +2172,11 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="36" t="s">
         <v>9</v>
       </c>
@@ -2183,11 +2188,11 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="26" t="s">
         <v>92</v>
       </c>
@@ -2199,11 +2204,11 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="27" t="s">
         <v>94</v>
       </c>
@@ -2241,113 +2246,113 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50" t="s">
+      <c r="F18" s="46"/>
+      <c r="G18" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="50"/>
+      <c r="H18" s="57"/>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45" t="s">
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46" t="s">
+      <c r="F20" s="69"/>
+      <c r="G20" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="46"/>
+      <c r="H20" s="70"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46" t="s">
+      <c r="F21" s="69"/>
+      <c r="G21" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="46"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45" t="s">
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46" t="s">
+      <c r="F22" s="69"/>
+      <c r="G22" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="46"/>
+      <c r="H22" s="70"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="46"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="46" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="46"/>
+      <c r="H24" s="70"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2474,94 +2479,94 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49" t="s">
+      <c r="D35" s="46"/>
+      <c r="E35" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49" t="s">
+      <c r="F35" s="46"/>
+      <c r="G35" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49" t="s">
+      <c r="H35" s="46"/>
+      <c r="I35" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="J35" s="49"/>
+      <c r="J35" s="46"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
       <c r="G39" s="16" t="s">
         <v>2</v>
       </c>
       <c r="H39" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
     </row>
     <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
@@ -2570,24 +2575,24 @@
       <c r="B41" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51" t="s">
+      <c r="D41" s="56"/>
+      <c r="E41" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="F41" s="51"/>
+      <c r="F41" s="56"/>
       <c r="G41" s="11" t="s">
         <v>101</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="I41" s="48">
+      <c r="I41" s="53">
         <v>4</v>
       </c>
-      <c r="J41" s="48"/>
+      <c r="J41" s="53"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
@@ -2596,22 +2601,22 @@
       <c r="B42" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51" t="s">
+      <c r="D42" s="56"/>
+      <c r="E42" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="51"/>
+      <c r="F42" s="56"/>
       <c r="G42" s="11" t="s">
         <v>105</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
@@ -2620,24 +2625,24 @@
       <c r="B43" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51" t="s">
+      <c r="D43" s="56"/>
+      <c r="E43" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="F43" s="51"/>
+      <c r="F43" s="56"/>
       <c r="G43" s="11" t="s">
         <v>109</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I43" s="52" t="s">
+      <c r="I43" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="J43" s="52"/>
+      <c r="J43" s="64"/>
     </row>
     <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
@@ -2646,22 +2651,22 @@
       <c r="B44" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51" t="s">
+      <c r="D44" s="56"/>
+      <c r="E44" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="F44" s="51"/>
+      <c r="F44" s="56"/>
       <c r="G44" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
@@ -2670,22 +2675,22 @@
       <c r="B45" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51" t="s">
+      <c r="D45" s="56"/>
+      <c r="E45" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="51"/>
+      <c r="F45" s="56"/>
       <c r="G45" s="11" t="s">
         <v>117</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
     </row>
     <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
@@ -2694,22 +2699,22 @@
       <c r="B46" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51" t="s">
+      <c r="D46" s="56"/>
+      <c r="E46" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F46" s="51"/>
+      <c r="F46" s="56"/>
       <c r="G46" s="11" t="s">
         <v>121</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
@@ -2718,22 +2723,22 @@
       <c r="B47" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51" t="s">
+      <c r="D47" s="56"/>
+      <c r="E47" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="F47" s="51"/>
+      <c r="F47" s="56"/>
       <c r="G47" s="11" t="s">
         <v>125</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
     </row>
     <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
@@ -2742,22 +2747,22 @@
       <c r="B48" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51" t="s">
+      <c r="D48" s="56"/>
+      <c r="E48" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="F48" s="51"/>
+      <c r="F48" s="56"/>
       <c r="G48" s="11" t="s">
         <v>129</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
@@ -2766,22 +2771,22 @@
       <c r="B49" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51" t="s">
+      <c r="D49" s="56"/>
+      <c r="E49" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="F49" s="51"/>
+      <c r="F49" s="56"/>
       <c r="G49" s="11" t="s">
         <v>133</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
     </row>
     <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
@@ -2790,22 +2795,22 @@
       <c r="B50" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51" t="s">
+      <c r="D50" s="56"/>
+      <c r="E50" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="F50" s="51"/>
+      <c r="F50" s="56"/>
       <c r="G50" s="11" t="s">
         <v>137</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
@@ -2814,22 +2819,22 @@
       <c r="B51" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51" t="s">
+      <c r="D51" s="56"/>
+      <c r="E51" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="F51" s="51"/>
+      <c r="F51" s="56"/>
       <c r="G51" s="11" t="s">
         <v>141</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
@@ -2856,94 +2861,94 @@
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49" t="s">
+      <c r="D54" s="46"/>
+      <c r="E54" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49" t="s">
+      <c r="F54" s="46"/>
+      <c r="G54" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49" t="s">
+      <c r="H54" s="46"/>
+      <c r="I54" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="J54" s="49"/>
+      <c r="J54" s="46"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="50"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="50"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="50"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="50"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
       <c r="G58" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H58" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="55" t="s">
+      <c r="A59" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="56"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
     </row>
     <row r="60" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
@@ -2952,24 +2957,24 @@
       <c r="B60" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51" t="s">
+      <c r="D60" s="56"/>
+      <c r="E60" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="F60" s="51"/>
+      <c r="F60" s="56"/>
       <c r="G60" s="11" t="s">
         <v>145</v>
       </c>
       <c r="H60" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="I60" s="48">
+      <c r="I60" s="53">
         <v>4</v>
       </c>
-      <c r="J60" s="48"/>
+      <c r="J60" s="53"/>
     </row>
     <row r="61" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
@@ -2978,22 +2983,22 @@
       <c r="B61" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51" t="s">
+      <c r="D61" s="56"/>
+      <c r="E61" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="F61" s="51"/>
+      <c r="F61" s="56"/>
       <c r="G61" s="11" t="s">
         <v>149</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
     </row>
     <row r="62" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
@@ -3002,24 +3007,24 @@
       <c r="B62" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51" t="s">
+      <c r="D62" s="56"/>
+      <c r="E62" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="F62" s="51"/>
+      <c r="F62" s="56"/>
       <c r="G62" s="11" t="s">
         <v>153</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="I62" s="52" t="s">
+      <c r="I62" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="J62" s="52"/>
+      <c r="J62" s="64"/>
     </row>
     <row r="63" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
@@ -3028,22 +3033,22 @@
       <c r="B63" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="51" t="s">
+      <c r="C63" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51" t="s">
+      <c r="D63" s="56"/>
+      <c r="E63" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="F63" s="51"/>
+      <c r="F63" s="56"/>
       <c r="G63" s="11" t="s">
         <v>157</v>
       </c>
       <c r="H63" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
     </row>
     <row r="64" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
@@ -3052,22 +3057,22 @@
       <c r="B64" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="51" t="s">
+      <c r="C64" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51" t="s">
+      <c r="D64" s="56"/>
+      <c r="E64" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="F64" s="51"/>
+      <c r="F64" s="56"/>
       <c r="G64" s="11" t="s">
         <v>161</v>
       </c>
       <c r="H64" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
     </row>
     <row r="65" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
@@ -3076,22 +3081,22 @@
       <c r="B65" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51" t="s">
+      <c r="D65" s="56"/>
+      <c r="E65" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="F65" s="51"/>
+      <c r="F65" s="56"/>
       <c r="G65" s="11" t="s">
         <v>165</v>
       </c>
       <c r="H65" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="64"/>
     </row>
     <row r="66" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
@@ -3100,22 +3105,22 @@
       <c r="B66" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51" t="s">
+      <c r="D66" s="56"/>
+      <c r="E66" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="F66" s="51"/>
+      <c r="F66" s="56"/>
       <c r="G66" s="11" t="s">
         <v>169</v>
       </c>
       <c r="H66" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
     </row>
     <row r="67" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
@@ -3124,22 +3129,22 @@
       <c r="B67" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="51" t="s">
+      <c r="C67" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51" t="s">
+      <c r="D67" s="56"/>
+      <c r="E67" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="F67" s="51"/>
+      <c r="F67" s="56"/>
       <c r="G67" s="11" t="s">
         <v>173</v>
       </c>
       <c r="H67" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="I67" s="52"/>
-      <c r="J67" s="52"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
     </row>
     <row r="68" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
@@ -3148,22 +3153,22 @@
       <c r="B68" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51" t="s">
+      <c r="D68" s="56"/>
+      <c r="E68" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="F68" s="51"/>
+      <c r="F68" s="56"/>
       <c r="G68" s="11" t="s">
         <v>177</v>
       </c>
       <c r="H68" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="64"/>
     </row>
     <row r="69" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
@@ -3172,22 +3177,22 @@
       <c r="B69" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="51" t="s">
+      <c r="C69" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51" t="s">
+      <c r="D69" s="56"/>
+      <c r="E69" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F69" s="51"/>
+      <c r="F69" s="56"/>
       <c r="G69" s="11" t="s">
         <v>181</v>
       </c>
       <c r="H69" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="I69" s="52"/>
-      <c r="J69" s="52"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
     </row>
     <row r="70" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
@@ -3196,36 +3201,36 @@
       <c r="B70" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C70" s="51" t="s">
+      <c r="C70" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51" t="s">
+      <c r="D70" s="56"/>
+      <c r="E70" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="F70" s="51"/>
+      <c r="F70" s="56"/>
       <c r="G70" s="11" t="s">
         <v>185</v>
       </c>
       <c r="H70" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I70" s="52"/>
-      <c r="J70" s="52"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="64"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="53" t="s">
+      <c r="A71" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="54"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="66"/>
     </row>
     <row r="72" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
@@ -3234,24 +3239,24 @@
       <c r="B72" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="51" t="s">
+      <c r="C72" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51" t="s">
+      <c r="D72" s="56"/>
+      <c r="E72" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="F72" s="51"/>
+      <c r="F72" s="56"/>
       <c r="G72" s="11" t="s">
         <v>189</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="48">
+      <c r="I72" s="53">
         <v>4</v>
       </c>
-      <c r="J72" s="48"/>
+      <c r="J72" s="53"/>
     </row>
     <row r="73" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
@@ -3260,22 +3265,22 @@
       <c r="B73" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="D73" s="51"/>
-      <c r="E73" s="51" t="s">
+      <c r="D73" s="56"/>
+      <c r="E73" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="F73" s="51"/>
+      <c r="F73" s="56"/>
       <c r="G73" s="11" t="s">
         <v>193</v>
       </c>
       <c r="H73" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="I73" s="48"/>
-      <c r="J73" s="48"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="53"/>
     </row>
     <row r="74" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
@@ -3284,24 +3289,24 @@
       <c r="B74" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="D74" s="51"/>
-      <c r="E74" s="51" t="s">
+      <c r="D74" s="56"/>
+      <c r="E74" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="F74" s="51"/>
+      <c r="F74" s="56"/>
       <c r="G74" s="11" t="s">
         <v>197</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="52" t="s">
+      <c r="I74" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="J74" s="52"/>
+      <c r="J74" s="64"/>
     </row>
     <row r="75" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
@@ -3310,22 +3315,22 @@
       <c r="B75" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="51" t="s">
+      <c r="C75" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="D75" s="51"/>
-      <c r="E75" s="51" t="s">
+      <c r="D75" s="56"/>
+      <c r="E75" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="F75" s="51"/>
+      <c r="F75" s="56"/>
       <c r="G75" s="11" t="s">
         <v>201</v>
       </c>
       <c r="H75" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="I75" s="52"/>
-      <c r="J75" s="52"/>
+      <c r="I75" s="64"/>
+      <c r="J75" s="64"/>
     </row>
     <row r="76" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
@@ -3334,22 +3339,22 @@
       <c r="B76" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="C76" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51" t="s">
+      <c r="D76" s="56"/>
+      <c r="E76" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="F76" s="51"/>
+      <c r="F76" s="56"/>
       <c r="G76" s="11" t="s">
         <v>205</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="64"/>
     </row>
     <row r="77" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
@@ -3358,22 +3363,22 @@
       <c r="B77" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="51" t="s">
+      <c r="C77" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51" t="s">
+      <c r="D77" s="56"/>
+      <c r="E77" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="F77" s="51"/>
+      <c r="F77" s="56"/>
       <c r="G77" s="11" t="s">
         <v>209</v>
       </c>
       <c r="H77" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="I77" s="52"/>
-      <c r="J77" s="52"/>
+      <c r="I77" s="64"/>
+      <c r="J77" s="64"/>
     </row>
     <row r="78" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
@@ -3382,22 +3387,22 @@
       <c r="B78" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="C78" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="D78" s="51"/>
-      <c r="E78" s="51" t="s">
+      <c r="D78" s="56"/>
+      <c r="E78" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="F78" s="51"/>
+      <c r="F78" s="56"/>
       <c r="G78" s="11" t="s">
         <v>213</v>
       </c>
       <c r="H78" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="I78" s="52"/>
-      <c r="J78" s="52"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="64"/>
     </row>
     <row r="79" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
@@ -3406,22 +3411,22 @@
       <c r="B79" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="51" t="s">
+      <c r="C79" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="D79" s="51"/>
-      <c r="E79" s="51" t="s">
+      <c r="D79" s="56"/>
+      <c r="E79" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="F79" s="51"/>
+      <c r="F79" s="56"/>
       <c r="G79" s="11" t="s">
         <v>217</v>
       </c>
       <c r="H79" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="I79" s="52"/>
-      <c r="J79" s="52"/>
+      <c r="I79" s="64"/>
+      <c r="J79" s="64"/>
     </row>
     <row r="80" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
@@ -3430,22 +3435,22 @@
       <c r="B80" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="51" t="s">
+      <c r="C80" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="D80" s="51"/>
-      <c r="E80" s="51" t="s">
+      <c r="D80" s="56"/>
+      <c r="E80" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="F80" s="51"/>
+      <c r="F80" s="56"/>
       <c r="G80" s="11" t="s">
         <v>221</v>
       </c>
       <c r="H80" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="I80" s="52"/>
-      <c r="J80" s="52"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="64"/>
     </row>
     <row r="81" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
@@ -3454,22 +3459,22 @@
       <c r="B81" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C81" s="51" t="s">
+      <c r="C81" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="D81" s="51"/>
-      <c r="E81" s="51" t="s">
+      <c r="D81" s="56"/>
+      <c r="E81" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="F81" s="51"/>
+      <c r="F81" s="56"/>
       <c r="G81" s="11" t="s">
         <v>225</v>
       </c>
       <c r="H81" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="I81" s="52"/>
-      <c r="J81" s="52"/>
+      <c r="I81" s="64"/>
+      <c r="J81" s="64"/>
     </row>
     <row r="82" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
@@ -3478,36 +3483,36 @@
       <c r="B82" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C82" s="51" t="s">
+      <c r="C82" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="D82" s="51"/>
-      <c r="E82" s="51" t="s">
+      <c r="D82" s="56"/>
+      <c r="E82" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="F82" s="51"/>
+      <c r="F82" s="56"/>
       <c r="G82" s="11" t="s">
         <v>229</v>
       </c>
       <c r="H82" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="I82" s="52"/>
-      <c r="J82" s="52"/>
+      <c r="I82" s="64"/>
+      <c r="J82" s="64"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="53" t="s">
+      <c r="A83" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="B83" s="54"/>
-      <c r="C83" s="54"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="54"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="66"/>
     </row>
     <row r="84" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
@@ -3516,24 +3521,24 @@
       <c r="B84" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="C84" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="D84" s="51"/>
-      <c r="E84" s="51" t="s">
+      <c r="D84" s="56"/>
+      <c r="E84" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="F84" s="51"/>
+      <c r="F84" s="56"/>
       <c r="G84" s="11" t="s">
         <v>233</v>
       </c>
       <c r="H84" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="I84" s="48">
+      <c r="I84" s="53">
         <v>4</v>
       </c>
-      <c r="J84" s="48"/>
+      <c r="J84" s="53"/>
     </row>
     <row r="85" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
@@ -3542,22 +3547,22 @@
       <c r="B85" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="51" t="s">
+      <c r="C85" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="D85" s="51"/>
-      <c r="E85" s="51" t="s">
+      <c r="D85" s="56"/>
+      <c r="E85" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="F85" s="51"/>
+      <c r="F85" s="56"/>
       <c r="G85" s="11" t="s">
         <v>237</v>
       </c>
       <c r="H85" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="I85" s="48"/>
-      <c r="J85" s="48"/>
+      <c r="I85" s="53"/>
+      <c r="J85" s="53"/>
     </row>
     <row r="86" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
@@ -3566,24 +3571,24 @@
       <c r="B86" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C86" s="51" t="s">
+      <c r="C86" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="D86" s="51"/>
-      <c r="E86" s="51" t="s">
+      <c r="D86" s="56"/>
+      <c r="E86" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="F86" s="51"/>
+      <c r="F86" s="56"/>
       <c r="G86" s="11" t="s">
         <v>241</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="I86" s="52" t="s">
+      <c r="I86" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="J86" s="52"/>
+      <c r="J86" s="64"/>
     </row>
     <row r="87" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
@@ -3592,22 +3597,22 @@
       <c r="B87" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C87" s="51" t="s">
+      <c r="C87" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="D87" s="51"/>
-      <c r="E87" s="51" t="s">
+      <c r="D87" s="56"/>
+      <c r="E87" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="F87" s="51"/>
+      <c r="F87" s="56"/>
       <c r="G87" s="11" t="s">
         <v>245</v>
       </c>
       <c r="H87" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="I87" s="52"/>
-      <c r="J87" s="52"/>
+      <c r="I87" s="64"/>
+      <c r="J87" s="64"/>
     </row>
     <row r="88" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
@@ -3616,22 +3621,22 @@
       <c r="B88" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C88" s="51" t="s">
+      <c r="C88" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="D88" s="51"/>
-      <c r="E88" s="51" t="s">
+      <c r="D88" s="56"/>
+      <c r="E88" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="F88" s="51"/>
+      <c r="F88" s="56"/>
       <c r="G88" s="11" t="s">
         <v>249</v>
       </c>
       <c r="H88" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="I88" s="52"/>
-      <c r="J88" s="52"/>
+      <c r="I88" s="64"/>
+      <c r="J88" s="64"/>
     </row>
     <row r="89" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
@@ -3640,22 +3645,22 @@
       <c r="B89" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C89" s="51" t="s">
+      <c r="C89" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="D89" s="51"/>
-      <c r="E89" s="51" t="s">
+      <c r="D89" s="56"/>
+      <c r="E89" s="56" t="s">
         <v>252</v>
       </c>
-      <c r="F89" s="51"/>
+      <c r="F89" s="56"/>
       <c r="G89" s="11" t="s">
         <v>253</v>
       </c>
       <c r="H89" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="I89" s="52"/>
-      <c r="J89" s="52"/>
+      <c r="I89" s="64"/>
+      <c r="J89" s="64"/>
     </row>
     <row r="90" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
@@ -3664,22 +3669,22 @@
       <c r="B90" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C90" s="51" t="s">
+      <c r="C90" s="56" t="s">
         <v>255</v>
       </c>
-      <c r="D90" s="51"/>
-      <c r="E90" s="51" t="s">
+      <c r="D90" s="56"/>
+      <c r="E90" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="F90" s="51"/>
+      <c r="F90" s="56"/>
       <c r="G90" s="11" t="s">
         <v>257</v>
       </c>
       <c r="H90" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="I90" s="52"/>
-      <c r="J90" s="52"/>
+      <c r="I90" s="64"/>
+      <c r="J90" s="64"/>
     </row>
     <row r="91" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
@@ -3688,22 +3693,22 @@
       <c r="B91" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C91" s="51" t="s">
+      <c r="C91" s="56" t="s">
         <v>259</v>
       </c>
-      <c r="D91" s="51"/>
-      <c r="E91" s="51" t="s">
+      <c r="D91" s="56"/>
+      <c r="E91" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="F91" s="51"/>
+      <c r="F91" s="56"/>
       <c r="G91" s="11" t="s">
         <v>261</v>
       </c>
       <c r="H91" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="I91" s="52"/>
-      <c r="J91" s="52"/>
+      <c r="I91" s="64"/>
+      <c r="J91" s="64"/>
     </row>
     <row r="92" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
@@ -3712,22 +3717,22 @@
       <c r="B92" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C92" s="51" t="s">
+      <c r="C92" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="D92" s="51"/>
-      <c r="E92" s="51" t="s">
+      <c r="D92" s="56"/>
+      <c r="E92" s="56" t="s">
         <v>264</v>
       </c>
-      <c r="F92" s="51"/>
+      <c r="F92" s="56"/>
       <c r="G92" s="11" t="s">
         <v>265</v>
       </c>
       <c r="H92" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="I92" s="52"/>
-      <c r="J92" s="52"/>
+      <c r="I92" s="64"/>
+      <c r="J92" s="64"/>
     </row>
     <row r="93" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
@@ -3736,22 +3741,22 @@
       <c r="B93" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C93" s="51" t="s">
+      <c r="C93" s="56" t="s">
         <v>267</v>
       </c>
-      <c r="D93" s="51"/>
-      <c r="E93" s="51" t="s">
+      <c r="D93" s="56"/>
+      <c r="E93" s="56" t="s">
         <v>268</v>
       </c>
-      <c r="F93" s="51"/>
+      <c r="F93" s="56"/>
       <c r="G93" s="11" t="s">
         <v>269</v>
       </c>
       <c r="H93" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="I93" s="52"/>
-      <c r="J93" s="52"/>
+      <c r="I93" s="64"/>
+      <c r="J93" s="64"/>
     </row>
     <row r="94" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
@@ -3760,22 +3765,22 @@
       <c r="B94" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C94" s="51" t="s">
+      <c r="C94" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="D94" s="51"/>
-      <c r="E94" s="51" t="s">
+      <c r="D94" s="56"/>
+      <c r="E94" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="F94" s="51"/>
+      <c r="F94" s="56"/>
       <c r="G94" s="11" t="s">
         <v>273</v>
       </c>
       <c r="H94" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="I94" s="52"/>
-      <c r="J94" s="52"/>
+      <c r="I94" s="64"/>
+      <c r="J94" s="64"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
@@ -3783,75 +3788,75 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="50" t="s">
+      <c r="A111" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B111" s="50" t="s">
+      <c r="B111" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C111" s="50"/>
-      <c r="D111" s="49" t="s">
+      <c r="C111" s="57"/>
+      <c r="D111" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="E111" s="49"/>
-      <c r="F111" s="49" t="s">
+      <c r="E111" s="46"/>
+      <c r="F111" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G111" s="49"/>
-      <c r="H111" s="50" t="s">
+      <c r="G111" s="46"/>
+      <c r="H111" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="I111" s="50"/>
-      <c r="J111" s="50"/>
+      <c r="I111" s="57"/>
+      <c r="J111" s="57"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="50"/>
-      <c r="B112" s="50"/>
-      <c r="C112" s="50"/>
-      <c r="D112" s="49"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="49"/>
-      <c r="G112" s="49"/>
-      <c r="H112" s="50"/>
-      <c r="I112" s="50"/>
-      <c r="J112" s="50"/>
+      <c r="A112" s="57"/>
+      <c r="B112" s="57"/>
+      <c r="C112" s="57"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="46"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="46"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="57"/>
+      <c r="J112" s="57"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="50"/>
-      <c r="B113" s="50"/>
-      <c r="C113" s="50"/>
-      <c r="D113" s="49"/>
-      <c r="E113" s="49"/>
-      <c r="F113" s="49"/>
-      <c r="G113" s="49"/>
+      <c r="A113" s="57"/>
+      <c r="B113" s="57"/>
+      <c r="C113" s="57"/>
+      <c r="D113" s="46"/>
+      <c r="E113" s="46"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
       <c r="H113" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I113" s="59" t="s">
+      <c r="I113" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="J113" s="60"/>
+      <c r="J113" s="61"/>
     </row>
     <row r="114" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="48">
+      <c r="A114" s="53">
         <v>1</v>
       </c>
       <c r="B114" s="14">
         <v>5</v>
       </c>
-      <c r="C114" s="48" t="s">
+      <c r="C114" s="53" t="s">
         <v>68</v>
       </c>
       <c r="D114" s="16">
         <v>2.5</v>
       </c>
-      <c r="E114" s="48" t="s">
+      <c r="E114" s="53" t="s">
         <v>69</v>
       </c>
       <c r="F114" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="G114" s="48" t="s">
+      <c r="G114" s="53" t="s">
         <v>68</v>
       </c>
       <c r="H114" s="41" t="s">
@@ -3860,60 +3865,60 @@
       <c r="I114" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="J114" s="48" t="s">
+      <c r="J114" s="53" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="48"/>
+      <c r="A115" s="53"/>
       <c r="B115" s="14">
         <v>100</v>
       </c>
-      <c r="C115" s="48"/>
+      <c r="C115" s="53"/>
       <c r="D115" s="16">
         <v>50</v>
       </c>
-      <c r="E115" s="48"/>
+      <c r="E115" s="53"/>
       <c r="F115" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="G115" s="48"/>
+      <c r="G115" s="53"/>
       <c r="H115" s="41" t="s">
         <v>296</v>
       </c>
       <c r="I115" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J115" s="48"/>
+      <c r="J115" s="53"/>
     </row>
     <row r="116" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="48"/>
+      <c r="A116" s="53"/>
       <c r="B116" s="14">
         <v>500</v>
       </c>
-      <c r="C116" s="48"/>
+      <c r="C116" s="53"/>
       <c r="D116" s="16">
         <v>250</v>
       </c>
-      <c r="E116" s="48"/>
+      <c r="E116" s="53"/>
       <c r="F116" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="G116" s="48"/>
+      <c r="G116" s="53"/>
       <c r="H116" s="41" t="s">
         <v>297</v>
       </c>
       <c r="I116" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J116" s="48"/>
+      <c r="J116" s="53"/>
     </row>
     <row r="117" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="48"/>
+      <c r="A117" s="53"/>
       <c r="B117" s="14">
         <v>1</v>
       </c>
-      <c r="C117" s="48" t="s">
+      <c r="C117" s="53" t="s">
         <v>74</v>
       </c>
       <c r="D117" s="16">
@@ -3925,7 +3930,7 @@
       <c r="F117" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="G117" s="48" t="s">
+      <c r="G117" s="53" t="s">
         <v>80</v>
       </c>
       <c r="H117" s="41" t="s">
@@ -3934,16 +3939,16 @@
       <c r="I117" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="J117" s="48" t="s">
+      <c r="J117" s="53" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="48"/>
+      <c r="A118" s="53"/>
       <c r="B118" s="14">
         <v>5</v>
       </c>
-      <c r="C118" s="48"/>
+      <c r="C118" s="53"/>
       <c r="D118" s="16">
         <v>2.5</v>
       </c>
@@ -3953,35 +3958,35 @@
       <c r="F118" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="G118" s="48"/>
+      <c r="G118" s="53"/>
       <c r="H118" s="41" t="s">
         <v>299</v>
       </c>
       <c r="I118" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J118" s="48"/>
+      <c r="J118" s="53"/>
     </row>
     <row r="119" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="48">
+      <c r="A119" s="53">
         <v>2</v>
       </c>
       <c r="B119" s="14">
         <v>5</v>
       </c>
-      <c r="C119" s="48" t="s">
+      <c r="C119" s="53" t="s">
         <v>68</v>
       </c>
       <c r="D119" s="16">
         <v>2.5</v>
       </c>
-      <c r="E119" s="48" t="s">
+      <c r="E119" s="53" t="s">
         <v>69</v>
       </c>
       <c r="F119" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="G119" s="48" t="s">
+      <c r="G119" s="53" t="s">
         <v>68</v>
       </c>
       <c r="H119" s="41" t="s">
@@ -3990,60 +3995,60 @@
       <c r="I119" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="J119" s="48" t="s">
+      <c r="J119" s="53" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="48"/>
+      <c r="A120" s="53"/>
       <c r="B120" s="14">
         <v>100</v>
       </c>
-      <c r="C120" s="48"/>
+      <c r="C120" s="53"/>
       <c r="D120" s="16">
         <v>50</v>
       </c>
-      <c r="E120" s="48"/>
+      <c r="E120" s="53"/>
       <c r="F120" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="G120" s="48"/>
+      <c r="G120" s="53"/>
       <c r="H120" s="41" t="s">
         <v>301</v>
       </c>
       <c r="I120" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J120" s="48"/>
+      <c r="J120" s="53"/>
     </row>
     <row r="121" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="48"/>
+      <c r="A121" s="53"/>
       <c r="B121" s="14">
         <v>500</v>
       </c>
-      <c r="C121" s="48"/>
+      <c r="C121" s="53"/>
       <c r="D121" s="16">
         <v>250</v>
       </c>
-      <c r="E121" s="48"/>
+      <c r="E121" s="53"/>
       <c r="F121" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="G121" s="48"/>
+      <c r="G121" s="53"/>
       <c r="H121" s="41" t="s">
         <v>302</v>
       </c>
       <c r="I121" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J121" s="48"/>
+      <c r="J121" s="53"/>
     </row>
     <row r="122" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="48"/>
+      <c r="A122" s="53"/>
       <c r="B122" s="14">
         <v>1</v>
       </c>
-      <c r="C122" s="48" t="s">
+      <c r="C122" s="53" t="s">
         <v>74</v>
       </c>
       <c r="D122" s="16">
@@ -4055,7 +4060,7 @@
       <c r="F122" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="G122" s="48" t="s">
+      <c r="G122" s="53" t="s">
         <v>80</v>
       </c>
       <c r="H122" s="41" t="s">
@@ -4064,16 +4069,16 @@
       <c r="I122" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="J122" s="48" t="s">
+      <c r="J122" s="53" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="48"/>
+      <c r="A123" s="53"/>
       <c r="B123" s="14">
         <v>5</v>
       </c>
-      <c r="C123" s="48"/>
+      <c r="C123" s="53"/>
       <c r="D123" s="16">
         <v>2.5</v>
       </c>
@@ -4083,35 +4088,35 @@
       <c r="F123" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="G123" s="48"/>
+      <c r="G123" s="53"/>
       <c r="H123" s="41" t="s">
         <v>304</v>
       </c>
       <c r="I123" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J123" s="48"/>
+      <c r="J123" s="53"/>
     </row>
     <row r="124" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="48">
+      <c r="A124" s="53">
         <v>3</v>
       </c>
       <c r="B124" s="14">
         <v>5</v>
       </c>
-      <c r="C124" s="48" t="s">
+      <c r="C124" s="53" t="s">
         <v>68</v>
       </c>
       <c r="D124" s="16">
         <v>2.5</v>
       </c>
-      <c r="E124" s="48" t="s">
+      <c r="E124" s="53" t="s">
         <v>69</v>
       </c>
       <c r="F124" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="G124" s="48" t="s">
+      <c r="G124" s="53" t="s">
         <v>68</v>
       </c>
       <c r="H124" s="41" t="s">
@@ -4120,60 +4125,60 @@
       <c r="I124" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="J124" s="48" t="s">
+      <c r="J124" s="53" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="48"/>
+      <c r="A125" s="53"/>
       <c r="B125" s="14">
         <v>100</v>
       </c>
-      <c r="C125" s="48"/>
+      <c r="C125" s="53"/>
       <c r="D125" s="16">
         <v>50</v>
       </c>
-      <c r="E125" s="48"/>
+      <c r="E125" s="53"/>
       <c r="F125" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="G125" s="48"/>
+      <c r="G125" s="53"/>
       <c r="H125" s="41" t="s">
         <v>306</v>
       </c>
       <c r="I125" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J125" s="48"/>
+      <c r="J125" s="53"/>
     </row>
     <row r="126" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="48"/>
+      <c r="A126" s="53"/>
       <c r="B126" s="14">
         <v>500</v>
       </c>
-      <c r="C126" s="48"/>
+      <c r="C126" s="53"/>
       <c r="D126" s="16">
         <v>250</v>
       </c>
-      <c r="E126" s="48"/>
+      <c r="E126" s="53"/>
       <c r="F126" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="G126" s="48"/>
+      <c r="G126" s="53"/>
       <c r="H126" s="41" t="s">
         <v>307</v>
       </c>
       <c r="I126" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J126" s="48"/>
+      <c r="J126" s="53"/>
     </row>
     <row r="127" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="48"/>
+      <c r="A127" s="53"/>
       <c r="B127" s="14">
         <v>1</v>
       </c>
-      <c r="C127" s="48" t="s">
+      <c r="C127" s="53" t="s">
         <v>74</v>
       </c>
       <c r="D127" s="16">
@@ -4185,7 +4190,7 @@
       <c r="F127" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="G127" s="48" t="s">
+      <c r="G127" s="53" t="s">
         <v>80</v>
       </c>
       <c r="H127" s="41" t="s">
@@ -4194,16 +4199,16 @@
       <c r="I127" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="J127" s="48" t="s">
+      <c r="J127" s="53" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="48"/>
+      <c r="A128" s="53"/>
       <c r="B128" s="14">
         <v>5</v>
       </c>
-      <c r="C128" s="48"/>
+      <c r="C128" s="53"/>
       <c r="D128" s="16">
         <v>2.5</v>
       </c>
@@ -4213,35 +4218,35 @@
       <c r="F128" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="G128" s="48"/>
+      <c r="G128" s="53"/>
       <c r="H128" s="41" t="s">
         <v>309</v>
       </c>
       <c r="I128" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J128" s="48"/>
+      <c r="J128" s="53"/>
     </row>
     <row r="129" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="48">
+      <c r="A129" s="53">
         <v>4</v>
       </c>
       <c r="B129" s="14">
         <v>5</v>
       </c>
-      <c r="C129" s="48" t="s">
+      <c r="C129" s="53" t="s">
         <v>68</v>
       </c>
       <c r="D129" s="16">
         <v>2.5</v>
       </c>
-      <c r="E129" s="48" t="s">
+      <c r="E129" s="53" t="s">
         <v>69</v>
       </c>
       <c r="F129" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="G129" s="48" t="s">
+      <c r="G129" s="53" t="s">
         <v>68</v>
       </c>
       <c r="H129" s="41" t="s">
@@ -4250,60 +4255,60 @@
       <c r="I129" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="J129" s="48" t="s">
+      <c r="J129" s="53" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="48"/>
+      <c r="A130" s="53"/>
       <c r="B130" s="14">
         <v>100</v>
       </c>
-      <c r="C130" s="48"/>
+      <c r="C130" s="53"/>
       <c r="D130" s="16">
         <v>50</v>
       </c>
-      <c r="E130" s="48"/>
+      <c r="E130" s="53"/>
       <c r="F130" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="G130" s="48"/>
+      <c r="G130" s="53"/>
       <c r="H130" s="41" t="s">
         <v>311</v>
       </c>
       <c r="I130" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J130" s="48"/>
+      <c r="J130" s="53"/>
     </row>
     <row r="131" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="48"/>
+      <c r="A131" s="53"/>
       <c r="B131" s="14">
         <v>500</v>
       </c>
-      <c r="C131" s="48"/>
+      <c r="C131" s="53"/>
       <c r="D131" s="16">
         <v>250</v>
       </c>
-      <c r="E131" s="48"/>
+      <c r="E131" s="53"/>
       <c r="F131" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="G131" s="48"/>
+      <c r="G131" s="53"/>
       <c r="H131" s="41" t="s">
         <v>312</v>
       </c>
       <c r="I131" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J131" s="48"/>
+      <c r="J131" s="53"/>
     </row>
     <row r="132" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="48"/>
+      <c r="A132" s="53"/>
       <c r="B132" s="14">
         <v>1</v>
       </c>
-      <c r="C132" s="48" t="s">
+      <c r="C132" s="53" t="s">
         <v>74</v>
       </c>
       <c r="D132" s="16">
@@ -4315,7 +4320,7 @@
       <c r="F132" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="G132" s="48" t="s">
+      <c r="G132" s="53" t="s">
         <v>80</v>
       </c>
       <c r="H132" s="41" t="s">
@@ -4324,16 +4329,16 @@
       <c r="I132" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="J132" s="48" t="s">
+      <c r="J132" s="53" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="48"/>
+      <c r="A133" s="53"/>
       <c r="B133" s="14">
         <v>5</v>
       </c>
-      <c r="C133" s="48"/>
+      <c r="C133" s="53"/>
       <c r="D133" s="16">
         <v>2.5</v>
       </c>
@@ -4343,14 +4348,14 @@
       <c r="F133" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="G133" s="48"/>
+      <c r="G133" s="53"/>
       <c r="H133" s="41" t="s">
         <v>314</v>
       </c>
       <c r="I133" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J133" s="48"/>
+      <c r="J133" s="53"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
@@ -4367,16 +4372,16 @@
       <c r="J135" s="3"/>
     </row>
     <row r="136" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="64" t="s">
+      <c r="A136" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="B136" s="66" t="s">
+      <c r="B136" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="C136" s="67"/>
-      <c r="D136" s="67"/>
-      <c r="E136" s="68"/>
-      <c r="F136" s="64" t="s">
+      <c r="C136" s="51"/>
+      <c r="D136" s="51"/>
+      <c r="E136" s="52"/>
+      <c r="F136" s="48" t="s">
         <v>318</v>
       </c>
       <c r="G136" s="38"/>
@@ -4385,7 +4390,7 @@
       <c r="J136" s="38"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="65"/>
+      <c r="A137" s="49"/>
       <c r="B137" s="37" t="s">
         <v>319</v>
       </c>
@@ -4398,7 +4403,7 @@
       <c r="E137" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="F137" s="65"/>
+      <c r="F137" s="49"/>
       <c r="G137" s="38"/>
       <c r="H137" s="38"/>
       <c r="I137" s="38"/>
@@ -4420,7 +4425,7 @@
       <c r="E138" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="F138" s="48" t="s">
+      <c r="F138" s="53" t="s">
         <v>326</v>
       </c>
       <c r="G138" s="38"/>
@@ -4444,7 +4449,7 @@
       <c r="E139" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="F139" s="48"/>
+      <c r="F139" s="53"/>
       <c r="G139" s="38"/>
       <c r="H139" s="38"/>
       <c r="I139" s="38"/>
@@ -4466,7 +4471,7 @@
       <c r="E140" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="F140" s="48"/>
+      <c r="F140" s="53"/>
       <c r="G140" s="38"/>
       <c r="H140" s="38"/>
       <c r="I140" s="38"/>
@@ -4488,7 +4493,7 @@
       <c r="E141" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="F141" s="48"/>
+      <c r="F141" s="53"/>
       <c r="G141" s="38"/>
       <c r="H141" s="38"/>
       <c r="I141" s="38"/>
@@ -4510,7 +4515,7 @@
       <c r="E142" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="F142" s="48"/>
+      <c r="F142" s="53"/>
       <c r="G142" s="38"/>
       <c r="H142" s="38"/>
       <c r="I142" s="38"/>
@@ -4532,7 +4537,7 @@
       <c r="E143" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="F143" s="48"/>
+      <c r="F143" s="53"/>
       <c r="G143" s="38"/>
       <c r="H143" s="38"/>
       <c r="I143" s="38"/>
@@ -4554,7 +4559,7 @@
       <c r="E144" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="F144" s="48"/>
+      <c r="F144" s="53"/>
       <c r="G144" s="38"/>
       <c r="H144" s="38"/>
       <c r="I144" s="38"/>
@@ -4576,7 +4581,7 @@
       <c r="E145" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="F145" s="48"/>
+      <c r="F145" s="53"/>
       <c r="G145" s="38"/>
       <c r="H145" s="38"/>
       <c r="I145" s="38"/>
@@ -4598,7 +4603,7 @@
       <c r="E146" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="F146" s="48"/>
+      <c r="F146" s="53"/>
       <c r="G146" s="38"/>
       <c r="H146" s="38"/>
       <c r="I146" s="38"/>
@@ -4620,7 +4625,7 @@
       <c r="E147" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="F147" s="48"/>
+      <c r="F147" s="53"/>
       <c r="G147" s="38"/>
       <c r="H147" s="38"/>
       <c r="I147" s="38"/>
@@ -4639,10 +4644,10 @@
       <c r="J148" s="38"/>
     </row>
     <row r="150" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A150" s="61" t="s">
+      <c r="A150" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="B150" s="61"/>
+      <c r="B150" s="44"/>
       <c r="C150" s="33"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
@@ -4651,32 +4656,32 @@
       <c r="H150" s="1"/>
     </row>
     <row r="151" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A151" s="61" t="s">
+      <c r="A151" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B151" s="61"/>
+      <c r="B151" s="44"/>
       <c r="C151" s="7"/>
       <c r="D151" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E151" s="69" t="s">
+      <c r="E151" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F151" s="70"/>
+      <c r="F151" s="55"/>
       <c r="G151" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H151" s="10"/>
     </row>
     <row r="152" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="61" t="s">
+      <c r="A152" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B152" s="61"/>
-      <c r="C152" s="62" t="s">
+      <c r="B152" s="44"/>
+      <c r="C152" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D152" s="62"/>
+      <c r="D152" s="45"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -4684,6 +4689,172 @@
     </row>
   </sheetData>
   <mergeCells count="190">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="E129:E131"/>
+    <mergeCell ref="G129:G131"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="G119:G121"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="G124:G126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="J124:J126"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="I72:J73"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G54:H57"/>
+    <mergeCell ref="I54:J58"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="I60:J61"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="I62:J70"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="I74:J82"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="J119:J121"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="I86:J94"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="A83:J83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="I84:J85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="I41:J42"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="I43:J51"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B111:C113"/>
+    <mergeCell ref="D111:E113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="F111:G113"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="G114:G116"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:D39"/>
+    <mergeCell ref="H111:J112"/>
+    <mergeCell ref="I113:J113"/>
     <mergeCell ref="A152:B152"/>
     <mergeCell ref="C152:D152"/>
     <mergeCell ref="G35:H38"/>
@@ -4708,172 +4879,6 @@
     <mergeCell ref="C54:D58"/>
     <mergeCell ref="E54:F58"/>
     <mergeCell ref="J114:J116"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B111:C113"/>
-    <mergeCell ref="D111:E113"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="F111:G113"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="G114:G116"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:D39"/>
-    <mergeCell ref="H111:J112"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="I41:J42"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="I43:J51"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="A83:J83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="I84:J85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="J119:J121"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="I86:J94"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="J122:J123"/>
-    <mergeCell ref="J124:J126"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="I72:J73"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G54:H57"/>
-    <mergeCell ref="I54:J58"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="I60:J61"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="I62:J70"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="I74:J82"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="E129:E131"/>
-    <mergeCell ref="G129:G131"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="E119:E121"/>
-    <mergeCell ref="G119:G121"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="E124:E126"/>
-    <mergeCell ref="G124:G126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.78125" header="0.51181102362204722" footer="0.51181102362204722"/>
